--- a/Content Buckets.xlsx
+++ b/Content Buckets.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="754">
   <si>
     <t>Lexical item</t>
   </si>
@@ -917,6 +917,9 @@
   </si>
   <si>
     <t>disease</t>
+  </si>
+  <si>
+    <t>germ</t>
   </si>
   <si>
     <t>pandemic</t>
@@ -5869,27 +5872,24 @@
         <v>311</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="C306" s="1">
         <v>-1.0</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C307" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D307" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C307" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="308">
@@ -5897,13 +5897,13 @@
         <v>315</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C308" s="1">
         <v>-1.0</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="309">
@@ -5911,27 +5911,27 @@
         <v>316</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C309" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C310" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D310" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C310" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="311">
@@ -5939,13 +5939,13 @@
         <v>320</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C311" s="1">
         <v>1.0</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="312">
@@ -5953,13 +5953,13 @@
         <v>321</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C312" s="1">
         <v>1.0</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="313">
@@ -5967,13 +5967,13 @@
         <v>322</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C313" s="1">
         <v>1.0</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="314">
@@ -5981,27 +5981,27 @@
         <v>323</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C314" s="1">
         <v>1.0</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C315" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C315" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="316">
@@ -6009,13 +6009,13 @@
         <v>327</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C316" s="1">
         <v>1.0</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="317">
@@ -6023,13 +6023,13 @@
         <v>328</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C317" s="1">
         <v>1.0</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="318">
@@ -6037,13 +6037,13 @@
         <v>329</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C318" s="1">
         <v>1.0</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="319">
@@ -6051,13 +6051,13 @@
         <v>330</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C319" s="1">
         <v>1.0</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="320">
@@ -6065,13 +6065,13 @@
         <v>331</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C320" s="1">
         <v>1.0</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="321">
@@ -6079,13 +6079,13 @@
         <v>332</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C321" s="1">
         <v>1.0</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="322">
@@ -6093,13 +6093,13 @@
         <v>333</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C322" s="1">
         <v>1.0</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="323">
@@ -6107,13 +6107,13 @@
         <v>334</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C323" s="1">
         <v>1.0</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="324">
@@ -6121,13 +6121,13 @@
         <v>335</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C324" s="1">
         <v>1.0</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="325">
@@ -6135,13 +6135,13 @@
         <v>336</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C325" s="1">
         <v>1.0</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="326">
@@ -6149,13 +6149,13 @@
         <v>337</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C326" s="1">
         <v>1.0</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="327">
@@ -6163,13 +6163,13 @@
         <v>338</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C327" s="1">
         <v>1.0</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="328">
@@ -6177,13 +6177,13 @@
         <v>339</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C328" s="1">
         <v>1.0</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="329">
@@ -6191,13 +6191,13 @@
         <v>340</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C329" s="1">
         <v>1.0</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="330">
@@ -6205,13 +6205,13 @@
         <v>341</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C330" s="1">
         <v>1.0</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="331">
@@ -6219,13 +6219,13 @@
         <v>342</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C331" s="1">
         <v>1.0</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="332">
@@ -6233,13 +6233,13 @@
         <v>343</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C332" s="1">
         <v>1.0</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="333">
@@ -6247,13 +6247,13 @@
         <v>344</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C333" s="1">
         <v>1.0</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="334">
@@ -6261,13 +6261,13 @@
         <v>345</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C334" s="1">
         <v>1.0</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="335">
@@ -6275,10 +6275,13 @@
         <v>346</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C335" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="336">
@@ -6286,7 +6289,7 @@
         <v>347</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C336" s="1">
         <v>-1.0</v>
@@ -6297,7 +6300,7 @@
         <v>348</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C337" s="1">
         <v>-1.0</v>
@@ -6308,7 +6311,7 @@
         <v>349</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C338" s="1">
         <v>-1.0</v>
@@ -6319,7 +6322,7 @@
         <v>350</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C339" s="1">
         <v>-1.0</v>
@@ -6330,7 +6333,7 @@
         <v>351</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C340" s="1">
         <v>-1.0</v>
@@ -6341,7 +6344,7 @@
         <v>352</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C341" s="1">
         <v>-1.0</v>
@@ -6349,10 +6352,10 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C342" s="1">
         <v>-1.0</v>
@@ -6360,10 +6363,10 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C343" s="1">
         <v>-1.0</v>
@@ -6374,7 +6377,7 @@
         <v>354</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C344" s="1">
         <v>-1.0</v>
@@ -6385,7 +6388,7 @@
         <v>355</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C345" s="1">
         <v>-1.0</v>
@@ -6396,7 +6399,7 @@
         <v>356</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C346" s="1">
         <v>-1.0</v>
@@ -6407,7 +6410,7 @@
         <v>357</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C347" s="1">
         <v>-1.0</v>
@@ -6418,7 +6421,7 @@
         <v>358</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C348" s="1">
         <v>-1.0</v>
@@ -6429,7 +6432,7 @@
         <v>359</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C349" s="1">
         <v>-1.0</v>
@@ -6440,7 +6443,7 @@
         <v>360</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C350" s="1">
         <v>-1.0</v>
@@ -6451,7 +6454,7 @@
         <v>361</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C351" s="1">
         <v>-1.0</v>
@@ -6462,7 +6465,7 @@
         <v>362</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C352" s="1">
         <v>-1.0</v>
@@ -6473,7 +6476,7 @@
         <v>363</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C353" s="1">
         <v>-1.0</v>
@@ -6484,7 +6487,7 @@
         <v>364</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C354" s="1">
         <v>-1.0</v>
@@ -6495,7 +6498,7 @@
         <v>365</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C355" s="1">
         <v>-1.0</v>
@@ -6506,7 +6509,7 @@
         <v>366</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C356" s="1">
         <v>-1.0</v>
@@ -6517,7 +6520,7 @@
         <v>367</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C357" s="1">
         <v>-1.0</v>
@@ -6528,7 +6531,7 @@
         <v>368</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C358" s="1">
         <v>-1.0</v>
@@ -6539,7 +6542,7 @@
         <v>369</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C359" s="1">
         <v>-1.0</v>
@@ -6547,10 +6550,10 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C360" s="1">
         <v>-1.0</v>
@@ -6558,10 +6561,10 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C361" s="1">
         <v>-1.0</v>
@@ -6569,10 +6572,10 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>370</v>
+        <v>135</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C362" s="1">
         <v>-1.0</v>
@@ -6583,7 +6586,7 @@
         <v>371</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C363" s="1">
         <v>-1.0</v>
@@ -6594,7 +6597,7 @@
         <v>372</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C364" s="1">
         <v>-1.0</v>
@@ -6605,7 +6608,7 @@
         <v>373</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C365" s="1">
         <v>-1.0</v>
@@ -6616,7 +6619,7 @@
         <v>374</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C366" s="1">
         <v>-1.0</v>
@@ -6627,7 +6630,7 @@
         <v>375</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C367" s="1">
         <v>-1.0</v>
@@ -6638,7 +6641,7 @@
         <v>376</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C368" s="1">
         <v>-1.0</v>
@@ -6649,7 +6652,7 @@
         <v>377</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C369" s="1">
         <v>-1.0</v>
@@ -6660,7 +6663,7 @@
         <v>378</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C370" s="1">
         <v>-1.0</v>
@@ -6671,7 +6674,7 @@
         <v>379</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C371" s="1">
         <v>-1.0</v>
@@ -6682,7 +6685,7 @@
         <v>380</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C372" s="1">
         <v>-1.0</v>
@@ -6693,7 +6696,7 @@
         <v>381</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C373" s="1">
         <v>-1.0</v>
@@ -6704,7 +6707,7 @@
         <v>382</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C374" s="1">
         <v>-1.0</v>
@@ -6715,7 +6718,7 @@
         <v>383</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C375" s="1">
         <v>-1.0</v>
@@ -6726,7 +6729,7 @@
         <v>384</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C376" s="1">
         <v>-1.0</v>
@@ -6737,7 +6740,7 @@
         <v>385</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C377" s="1">
         <v>-1.0</v>
@@ -6748,7 +6751,7 @@
         <v>386</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C378" s="1">
         <v>-1.0</v>
@@ -6759,7 +6762,7 @@
         <v>387</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C379" s="1">
         <v>-1.0</v>
@@ -6767,10 +6770,10 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>212</v>
+        <v>388</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C380" s="1">
         <v>-1.0</v>
@@ -6778,10 +6781,10 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>388</v>
+        <v>212</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C381" s="1">
         <v>-1.0</v>
@@ -6789,10 +6792,10 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>213</v>
+        <v>389</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C382" s="1">
         <v>-1.0</v>
@@ -6800,10 +6803,10 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C383" s="1">
         <v>-1.0</v>
@@ -6811,10 +6814,10 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C384" s="1">
         <v>-1.0</v>
@@ -6822,10 +6825,10 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C385" s="1">
         <v>-1.0</v>
@@ -6833,10 +6836,10 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>389</v>
+        <v>216</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C386" s="1">
         <v>-1.0</v>
@@ -6847,7 +6850,7 @@
         <v>390</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C387" s="1">
         <v>-1.0</v>
@@ -6858,7 +6861,7 @@
         <v>391</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C388" s="1">
         <v>-1.0</v>
@@ -6869,7 +6872,7 @@
         <v>392</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C389" s="1">
         <v>-1.0</v>
@@ -6880,7 +6883,7 @@
         <v>393</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C390" s="1">
         <v>-1.0</v>
@@ -6891,7 +6894,7 @@
         <v>394</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C391" s="1">
         <v>-1.0</v>
@@ -6902,7 +6905,7 @@
         <v>395</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C392" s="1">
         <v>-1.0</v>
@@ -6913,7 +6916,7 @@
         <v>396</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C393" s="1">
         <v>-1.0</v>
@@ -6924,7 +6927,7 @@
         <v>397</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C394" s="1">
         <v>-1.0</v>
@@ -6935,7 +6938,7 @@
         <v>398</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C395" s="1">
         <v>-1.0</v>
@@ -6946,7 +6949,7 @@
         <v>399</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C396" s="1">
         <v>-1.0</v>
@@ -6957,7 +6960,7 @@
         <v>400</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C397" s="1">
         <v>-1.0</v>
@@ -6968,7 +6971,7 @@
         <v>401</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C398" s="1">
         <v>-1.0</v>
@@ -6979,27 +6982,24 @@
         <v>402</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
       <c r="C399" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>404</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C400" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D400" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C400" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="401">
@@ -7007,13 +7007,13 @@
         <v>406</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C401" s="1">
         <v>1.0</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="402">
@@ -7021,13 +7021,13 @@
         <v>407</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C402" s="1">
         <v>1.0</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="403">
@@ -7035,13 +7035,13 @@
         <v>408</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C403" s="1">
         <v>1.0</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="404">
@@ -7049,13 +7049,13 @@
         <v>409</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C404" s="1">
         <v>1.0</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="405">
@@ -7063,27 +7063,27 @@
         <v>410</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C405" s="1">
         <v>1.0</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C406" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D406" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C406" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="407">
@@ -7091,13 +7091,13 @@
         <v>414</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C407" s="1">
         <v>1.0</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="408">
@@ -7105,13 +7105,13 @@
         <v>415</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C408" s="1">
         <v>1.0</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="409">
@@ -7119,13 +7119,13 @@
         <v>416</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C409" s="1">
         <v>1.0</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="410">
@@ -7133,13 +7133,13 @@
         <v>417</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C410" s="1">
         <v>1.0</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="411">
@@ -7147,13 +7147,13 @@
         <v>418</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C411" s="1">
         <v>1.0</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="412">
@@ -7161,13 +7161,13 @@
         <v>419</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C412" s="1">
         <v>1.0</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="413">
@@ -7175,13 +7175,13 @@
         <v>420</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C413" s="1">
         <v>1.0</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="414">
@@ -7189,13 +7189,13 @@
         <v>421</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C414" s="1">
         <v>1.0</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="415">
@@ -7203,13 +7203,13 @@
         <v>422</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C415" s="1">
         <v>1.0</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="416">
@@ -7217,41 +7217,41 @@
         <v>423</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C416" s="1">
         <v>1.0</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C417" s="1">
         <v>1.0</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C418" s="1">
         <v>1.0</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="419">
@@ -7259,13 +7259,13 @@
         <v>425</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C419" s="1">
         <v>1.0</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="420">
@@ -7273,13 +7273,13 @@
         <v>426</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C420" s="1">
         <v>1.0</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="421">
@@ -7287,13 +7287,13 @@
         <v>427</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C421" s="1">
         <v>1.0</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="422">
@@ -7301,13 +7301,13 @@
         <v>428</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C422" s="1">
         <v>1.0</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="423">
@@ -7315,13 +7315,13 @@
         <v>429</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C423" s="1">
         <v>1.0</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="424">
@@ -7329,13 +7329,13 @@
         <v>430</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C424" s="1">
         <v>1.0</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="425">
@@ -7343,13 +7343,13 @@
         <v>431</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C425" s="1">
         <v>1.0</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="426">
@@ -7357,13 +7357,13 @@
         <v>432</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C426" s="1">
         <v>1.0</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="427">
@@ -7371,13 +7371,13 @@
         <v>433</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C427" s="1">
         <v>1.0</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="428">
@@ -7385,13 +7385,13 @@
         <v>434</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C428" s="1">
         <v>1.0</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="429">
@@ -7399,13 +7399,13 @@
         <v>435</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C429" s="1">
         <v>1.0</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="430">
@@ -7413,13 +7413,13 @@
         <v>436</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C430" s="1">
         <v>1.0</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="431">
@@ -7427,13 +7427,13 @@
         <v>437</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C431" s="1">
         <v>1.0</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="432">
@@ -7441,13 +7441,13 @@
         <v>438</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C432" s="1">
         <v>1.0</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="433">
@@ -7455,13 +7455,13 @@
         <v>439</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C433" s="1">
         <v>1.0</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="434">
@@ -7469,13 +7469,13 @@
         <v>440</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C434" s="1">
         <v>1.0</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="435">
@@ -7483,13 +7483,13 @@
         <v>441</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C435" s="1">
         <v>1.0</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="436">
@@ -7497,13 +7497,13 @@
         <v>442</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C436" s="1">
         <v>1.0</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="437">
@@ -7511,13 +7511,13 @@
         <v>443</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C437" s="1">
         <v>1.0</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="438">
@@ -7525,13 +7525,13 @@
         <v>444</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C438" s="1">
         <v>1.0</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="439">
@@ -7539,13 +7539,13 @@
         <v>445</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C439" s="1">
         <v>1.0</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="440">
@@ -7553,13 +7553,13 @@
         <v>446</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C440" s="1">
         <v>1.0</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="441">
@@ -7567,13 +7567,13 @@
         <v>447</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C441" s="1">
         <v>1.0</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="442">
@@ -7581,13 +7581,13 @@
         <v>448</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C442" s="1">
         <v>1.0</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="443">
@@ -7595,13 +7595,13 @@
         <v>449</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C443" s="1">
         <v>1.0</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="444">
@@ -7609,13 +7609,13 @@
         <v>450</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C444" s="1">
         <v>1.0</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="445">
@@ -7623,13 +7623,13 @@
         <v>451</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C445" s="1">
         <v>1.0</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="446">
@@ -7637,13 +7637,13 @@
         <v>452</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C446" s="1">
         <v>1.0</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="447">
@@ -7651,13 +7651,13 @@
         <v>453</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C447" s="1">
         <v>1.0</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="448">
@@ -7665,27 +7665,27 @@
         <v>454</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="C448" s="1">
         <v>1.0</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>456</v>
+        <v>413</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C449" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D449" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C449" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="450">
@@ -7693,13 +7693,13 @@
         <v>458</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C450" s="1">
         <v>1.0</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="451">
@@ -7707,13 +7707,13 @@
         <v>459</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C451" s="1">
         <v>1.0</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="452">
@@ -7721,13 +7721,13 @@
         <v>460</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C452" s="1">
         <v>1.0</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="453">
@@ -7735,13 +7735,13 @@
         <v>461</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C453" s="1">
         <v>1.0</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="454">
@@ -7749,13 +7749,13 @@
         <v>462</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C454" s="1">
         <v>1.0</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="455">
@@ -7763,27 +7763,27 @@
         <v>463</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C455" s="1">
         <v>1.0</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C456" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D456" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C456" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="457">
@@ -7791,13 +7791,13 @@
         <v>467</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C457" s="1">
         <v>1.0</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="458">
@@ -7805,13 +7805,13 @@
         <v>468</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C458" s="1">
         <v>1.0</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="459">
@@ -7819,13 +7819,13 @@
         <v>469</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C459" s="1">
         <v>1.0</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="460">
@@ -7833,13 +7833,13 @@
         <v>470</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C460" s="1">
         <v>1.0</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="461">
@@ -7847,27 +7847,27 @@
         <v>471</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C461" s="1">
         <v>1.0</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C462" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D462" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C462" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D462" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="463">
@@ -7875,13 +7875,13 @@
         <v>474</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C463" s="1">
         <v>1.0</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="464">
@@ -7889,13 +7889,13 @@
         <v>475</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C464" s="1">
         <v>1.0</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="465">
@@ -7903,13 +7903,13 @@
         <v>476</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C465" s="1">
         <v>1.0</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="466">
@@ -7917,13 +7917,13 @@
         <v>477</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C466" s="1">
         <v>1.0</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="467">
@@ -7931,13 +7931,13 @@
         <v>478</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C467" s="1">
         <v>1.0</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="468">
@@ -7945,13 +7945,13 @@
         <v>479</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C468" s="1">
         <v>1.0</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="469">
@@ -7959,13 +7959,13 @@
         <v>480</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C469" s="1">
         <v>1.0</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="470">
@@ -7973,13 +7973,13 @@
         <v>481</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C470" s="1">
         <v>1.0</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="471">
@@ -7987,13 +7987,13 @@
         <v>482</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C471" s="1">
         <v>1.0</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="472">
@@ -8001,13 +8001,13 @@
         <v>483</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C472" s="1">
         <v>1.0</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="473">
@@ -8015,13 +8015,13 @@
         <v>484</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C473" s="1">
         <v>1.0</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="474">
@@ -8029,13 +8029,13 @@
         <v>485</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C474" s="1">
         <v>1.0</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="475">
@@ -8043,13 +8043,13 @@
         <v>486</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C475" s="1">
         <v>1.0</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="476">
@@ -8057,13 +8057,13 @@
         <v>487</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C476" s="1">
         <v>1.0</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="477">
@@ -8071,13 +8071,13 @@
         <v>488</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C477" s="1">
         <v>1.0</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="478">
@@ -8085,13 +8085,13 @@
         <v>489</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C478" s="1">
         <v>1.0</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="479">
@@ -8099,13 +8099,13 @@
         <v>490</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C479" s="1">
         <v>1.0</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="480">
@@ -8113,13 +8113,13 @@
         <v>491</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C480" s="1">
         <v>1.0</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="481">
@@ -8127,13 +8127,13 @@
         <v>492</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C481" s="1">
         <v>1.0</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="482">
@@ -8141,13 +8141,13 @@
         <v>493</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C482" s="1">
         <v>1.0</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="483">
@@ -8155,13 +8155,13 @@
         <v>494</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C483" s="1">
         <v>1.0</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="484">
@@ -8169,13 +8169,13 @@
         <v>495</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C484" s="1">
         <v>1.0</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="485">
@@ -8183,41 +8183,41 @@
         <v>496</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C485" s="1">
         <v>1.0</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C486" s="1">
         <v>1.0</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C487" s="1">
         <v>1.0</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="488">
@@ -8225,13 +8225,13 @@
         <v>498</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C488" s="1">
         <v>1.0</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="489">
@@ -8239,13 +8239,13 @@
         <v>499</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C489" s="1">
         <v>1.0</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="490">
@@ -8253,18 +8253,21 @@
         <v>500</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="C490" s="1">
         <v>1.0</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C491" s="1">
         <v>1.0</v>
@@ -8275,7 +8278,7 @@
         <v>503</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C492" s="1">
         <v>1.0</v>
@@ -8286,7 +8289,7 @@
         <v>504</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C493" s="1">
         <v>1.0</v>
@@ -8297,7 +8300,7 @@
         <v>505</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C494" s="1">
         <v>1.0</v>
@@ -8308,7 +8311,7 @@
         <v>506</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C495" s="1">
         <v>1.0</v>
@@ -8319,7 +8322,7 @@
         <v>507</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C496" s="1">
         <v>1.0</v>
@@ -8330,7 +8333,7 @@
         <v>508</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C497" s="1">
         <v>1.0</v>
@@ -8341,7 +8344,7 @@
         <v>509</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C498" s="1">
         <v>1.0</v>
@@ -8352,7 +8355,7 @@
         <v>510</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C499" s="1">
         <v>1.0</v>
@@ -8363,7 +8366,7 @@
         <v>511</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C500" s="1">
         <v>1.0</v>
@@ -8374,7 +8377,7 @@
         <v>512</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C501" s="1">
         <v>1.0</v>
@@ -8385,7 +8388,7 @@
         <v>513</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C502" s="1">
         <v>1.0</v>
@@ -8396,7 +8399,7 @@
         <v>514</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C503" s="1">
         <v>1.0</v>
@@ -8407,7 +8410,7 @@
         <v>515</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C504" s="1">
         <v>1.0</v>
@@ -8418,7 +8421,7 @@
         <v>516</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C505" s="1">
         <v>1.0</v>
@@ -8429,7 +8432,7 @@
         <v>517</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C506" s="1">
         <v>1.0</v>
@@ -8440,7 +8443,7 @@
         <v>518</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C507" s="1">
         <v>1.0</v>
@@ -8451,7 +8454,7 @@
         <v>519</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C508" s="1">
         <v>1.0</v>
@@ -8462,7 +8465,7 @@
         <v>520</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C509" s="1">
         <v>1.0</v>
@@ -8473,7 +8476,7 @@
         <v>521</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C510" s="1">
         <v>1.0</v>
@@ -8484,7 +8487,7 @@
         <v>522</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C511" s="1">
         <v>1.0</v>
@@ -8495,7 +8498,7 @@
         <v>523</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C512" s="1">
         <v>1.0</v>
@@ -8506,7 +8509,7 @@
         <v>524</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C513" s="1">
         <v>1.0</v>
@@ -8517,7 +8520,7 @@
         <v>525</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C514" s="1">
         <v>1.0</v>
@@ -8528,7 +8531,7 @@
         <v>526</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C515" s="1">
         <v>1.0</v>
@@ -8539,7 +8542,7 @@
         <v>527</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C516" s="1">
         <v>1.0</v>
@@ -8550,7 +8553,7 @@
         <v>528</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C517" s="1">
         <v>1.0</v>
@@ -8561,7 +8564,7 @@
         <v>529</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C518" s="1">
         <v>1.0</v>
@@ -8572,7 +8575,7 @@
         <v>530</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C519" s="1">
         <v>1.0</v>
@@ -8583,7 +8586,7 @@
         <v>531</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C520" s="1">
         <v>1.0</v>
@@ -8594,7 +8597,7 @@
         <v>532</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C521" s="1">
         <v>1.0</v>
@@ -8605,7 +8608,7 @@
         <v>533</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C522" s="1">
         <v>1.0</v>
@@ -8616,7 +8619,7 @@
         <v>534</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C523" s="1">
         <v>1.0</v>
@@ -8627,7 +8630,7 @@
         <v>535</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C524" s="1">
         <v>1.0</v>
@@ -8638,7 +8641,7 @@
         <v>536</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C525" s="1">
         <v>1.0</v>
@@ -8649,7 +8652,7 @@
         <v>537</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C526" s="1">
         <v>1.0</v>
@@ -8660,7 +8663,7 @@
         <v>538</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C527" s="1">
         <v>1.0</v>
@@ -8671,7 +8674,7 @@
         <v>539</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C528" s="1">
         <v>1.0</v>
@@ -8682,7 +8685,7 @@
         <v>540</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C529" s="1">
         <v>1.0</v>
@@ -8693,7 +8696,7 @@
         <v>541</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C530" s="1">
         <v>1.0</v>
@@ -8704,7 +8707,7 @@
         <v>542</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C531" s="1">
         <v>1.0</v>
@@ -8715,7 +8718,7 @@
         <v>543</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C532" s="1">
         <v>1.0</v>
@@ -8726,7 +8729,7 @@
         <v>544</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C533" s="1">
         <v>1.0</v>
@@ -8737,7 +8740,7 @@
         <v>545</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C534" s="1">
         <v>1.0</v>
@@ -8748,7 +8751,7 @@
         <v>546</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C535" s="1">
         <v>1.0</v>
@@ -8759,7 +8762,7 @@
         <v>547</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C536" s="1">
         <v>1.0</v>
@@ -8770,7 +8773,7 @@
         <v>548</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C537" s="1">
         <v>1.0</v>
@@ -8781,7 +8784,7 @@
         <v>549</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C538" s="1">
         <v>1.0</v>
@@ -8792,7 +8795,7 @@
         <v>550</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C539" s="1">
         <v>1.0</v>
@@ -8803,7 +8806,7 @@
         <v>551</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C540" s="1">
         <v>1.0</v>
@@ -8814,7 +8817,7 @@
         <v>552</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C541" s="1">
         <v>1.0</v>
@@ -8825,7 +8828,7 @@
         <v>553</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C542" s="1">
         <v>1.0</v>
@@ -8836,7 +8839,7 @@
         <v>554</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C543" s="1">
         <v>1.0</v>
@@ -8847,7 +8850,7 @@
         <v>555</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C544" s="1">
         <v>1.0</v>
@@ -8858,7 +8861,7 @@
         <v>556</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C545" s="1">
         <v>1.0</v>
@@ -8869,7 +8872,7 @@
         <v>557</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C546" s="1">
         <v>1.0</v>
@@ -8880,7 +8883,7 @@
         <v>558</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C547" s="1">
         <v>1.0</v>
@@ -8891,7 +8894,7 @@
         <v>559</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C548" s="1">
         <v>1.0</v>
@@ -8902,7 +8905,7 @@
         <v>560</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C549" s="1">
         <v>1.0</v>
@@ -8913,7 +8916,7 @@
         <v>561</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C550" s="1">
         <v>1.0</v>
@@ -8924,7 +8927,7 @@
         <v>562</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C551" s="1">
         <v>1.0</v>
@@ -8935,7 +8938,7 @@
         <v>563</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C552" s="1">
         <v>1.0</v>
@@ -8946,7 +8949,7 @@
         <v>564</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C553" s="1">
         <v>1.0</v>
@@ -8957,7 +8960,7 @@
         <v>565</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C554" s="1">
         <v>1.0</v>
@@ -8968,7 +8971,7 @@
         <v>566</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C555" s="1">
         <v>1.0</v>
@@ -8979,7 +8982,7 @@
         <v>567</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C556" s="1">
         <v>1.0</v>
@@ -8990,7 +8993,7 @@
         <v>568</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C557" s="1">
         <v>1.0</v>
@@ -9001,7 +9004,7 @@
         <v>569</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C558" s="1">
         <v>1.0</v>
@@ -9012,7 +9015,7 @@
         <v>570</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C559" s="1">
         <v>1.0</v>
@@ -9023,7 +9026,7 @@
         <v>571</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C560" s="1">
         <v>1.0</v>
@@ -9034,7 +9037,7 @@
         <v>572</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C561" s="1">
         <v>1.0</v>
@@ -9045,7 +9048,7 @@
         <v>573</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C562" s="1">
         <v>1.0</v>
@@ -9056,7 +9059,7 @@
         <v>574</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C563" s="1">
         <v>1.0</v>
@@ -9067,7 +9070,7 @@
         <v>575</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C564" s="1">
         <v>1.0</v>
@@ -9078,7 +9081,7 @@
         <v>576</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C565" s="1">
         <v>1.0</v>
@@ -9089,7 +9092,7 @@
         <v>577</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C566" s="1">
         <v>1.0</v>
@@ -9100,7 +9103,7 @@
         <v>578</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C567" s="1">
         <v>1.0</v>
@@ -9111,7 +9114,7 @@
         <v>579</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C568" s="1">
         <v>1.0</v>
@@ -9122,7 +9125,7 @@
         <v>580</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C569" s="1">
         <v>1.0</v>
@@ -9133,7 +9136,7 @@
         <v>581</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C570" s="1">
         <v>1.0</v>
@@ -9144,7 +9147,7 @@
         <v>582</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C571" s="1">
         <v>1.0</v>
@@ -9155,7 +9158,7 @@
         <v>583</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C572" s="1">
         <v>1.0</v>
@@ -9166,7 +9169,7 @@
         <v>584</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C573" s="1">
         <v>1.0</v>
@@ -9177,7 +9180,7 @@
         <v>585</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C574" s="1">
         <v>1.0</v>
@@ -9188,7 +9191,7 @@
         <v>586</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C575" s="1">
         <v>1.0</v>
@@ -9199,7 +9202,7 @@
         <v>587</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C576" s="1">
         <v>1.0</v>
@@ -9210,7 +9213,7 @@
         <v>588</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C577" s="1">
         <v>1.0</v>
@@ -9221,7 +9224,7 @@
         <v>589</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C578" s="1">
         <v>1.0</v>
@@ -9232,7 +9235,7 @@
         <v>590</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C579" s="1">
         <v>1.0</v>
@@ -9243,7 +9246,7 @@
         <v>591</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C580" s="1">
         <v>1.0</v>
@@ -9254,7 +9257,7 @@
         <v>592</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C581" s="1">
         <v>1.0</v>
@@ -9265,7 +9268,7 @@
         <v>593</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C582" s="1">
         <v>1.0</v>
@@ -9276,7 +9279,7 @@
         <v>594</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C583" s="1">
         <v>1.0</v>
@@ -9287,7 +9290,7 @@
         <v>595</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C584" s="1">
         <v>1.0</v>
@@ -9298,7 +9301,7 @@
         <v>596</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C585" s="1">
         <v>1.0</v>
@@ -9309,7 +9312,7 @@
         <v>597</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C586" s="1">
         <v>1.0</v>
@@ -9320,7 +9323,7 @@
         <v>598</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C587" s="1">
         <v>1.0</v>
@@ -9331,7 +9334,7 @@
         <v>599</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C588" s="1">
         <v>1.0</v>
@@ -9342,7 +9345,7 @@
         <v>600</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C589" s="1">
         <v>1.0</v>
@@ -9353,7 +9356,7 @@
         <v>601</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C590" s="1">
         <v>1.0</v>
@@ -9364,7 +9367,7 @@
         <v>602</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C591" s="1">
         <v>1.0</v>
@@ -9375,7 +9378,7 @@
         <v>603</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C592" s="1">
         <v>1.0</v>
@@ -9386,7 +9389,7 @@
         <v>604</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C593" s="1">
         <v>1.0</v>
@@ -9397,7 +9400,7 @@
         <v>605</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C594" s="1">
         <v>1.0</v>
@@ -9408,7 +9411,7 @@
         <v>606</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C595" s="1">
         <v>1.0</v>
@@ -9419,7 +9422,7 @@
         <v>607</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C596" s="1">
         <v>1.0</v>
@@ -9430,7 +9433,7 @@
         <v>608</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C597" s="1">
         <v>1.0</v>
@@ -9441,7 +9444,7 @@
         <v>609</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C598" s="1">
         <v>1.0</v>
@@ -9452,7 +9455,7 @@
         <v>610</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C599" s="1">
         <v>1.0</v>
@@ -9463,7 +9466,7 @@
         <v>611</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C600" s="1">
         <v>1.0</v>
@@ -9474,7 +9477,7 @@
         <v>612</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C601" s="1">
         <v>1.0</v>
@@ -9485,7 +9488,7 @@
         <v>613</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C602" s="1">
         <v>1.0</v>
@@ -9496,7 +9499,7 @@
         <v>614</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C603" s="1">
         <v>1.0</v>
@@ -9507,7 +9510,7 @@
         <v>615</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C604" s="1">
         <v>1.0</v>
@@ -9518,7 +9521,7 @@
         <v>616</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C605" s="1">
         <v>1.0</v>
@@ -9529,7 +9532,7 @@
         <v>617</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C606" s="1">
         <v>1.0</v>
@@ -9540,7 +9543,7 @@
         <v>618</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C607" s="1">
         <v>1.0</v>
@@ -9551,7 +9554,7 @@
         <v>619</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C608" s="1">
         <v>1.0</v>
@@ -9562,7 +9565,7 @@
         <v>620</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C609" s="1">
         <v>1.0</v>
@@ -9573,7 +9576,7 @@
         <v>621</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C610" s="1">
         <v>1.0</v>
@@ -9584,7 +9587,7 @@
         <v>622</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C611" s="1">
         <v>1.0</v>
@@ -9595,7 +9598,7 @@
         <v>623</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C612" s="1">
         <v>1.0</v>
@@ -9606,7 +9609,7 @@
         <v>624</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C613" s="1">
         <v>1.0</v>
@@ -9617,7 +9620,7 @@
         <v>625</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C614" s="1">
         <v>1.0</v>
@@ -9628,7 +9631,7 @@
         <v>626</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C615" s="1">
         <v>1.0</v>
@@ -9639,7 +9642,7 @@
         <v>627</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C616" s="1">
         <v>1.0</v>
@@ -9650,7 +9653,7 @@
         <v>628</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C617" s="1">
         <v>1.0</v>
@@ -9661,7 +9664,7 @@
         <v>629</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C618" s="1">
         <v>1.0</v>
@@ -9672,7 +9675,7 @@
         <v>630</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C619" s="1">
         <v>1.0</v>
@@ -9683,7 +9686,7 @@
         <v>631</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C620" s="1">
         <v>1.0</v>
@@ -9694,7 +9697,7 @@
         <v>632</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C621" s="1">
         <v>1.0</v>
@@ -9705,7 +9708,7 @@
         <v>633</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C622" s="1">
         <v>1.0</v>
@@ -9716,7 +9719,7 @@
         <v>634</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C623" s="1">
         <v>1.0</v>
@@ -9727,7 +9730,7 @@
         <v>635</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C624" s="1">
         <v>1.0</v>
@@ -9738,7 +9741,7 @@
         <v>636</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C625" s="1">
         <v>1.0</v>
@@ -9749,7 +9752,7 @@
         <v>637</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C626" s="1">
         <v>1.0</v>
@@ -9760,7 +9763,7 @@
         <v>638</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C627" s="1">
         <v>1.0</v>
@@ -9771,7 +9774,7 @@
         <v>639</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C628" s="1">
         <v>1.0</v>
@@ -9782,7 +9785,7 @@
         <v>640</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C629" s="1">
         <v>1.0</v>
@@ -9793,7 +9796,7 @@
         <v>641</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C630" s="1">
         <v>1.0</v>
@@ -9804,7 +9807,7 @@
         <v>642</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C631" s="1">
         <v>1.0</v>
@@ -9815,7 +9818,7 @@
         <v>643</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C632" s="1">
         <v>1.0</v>
@@ -9826,7 +9829,7 @@
         <v>644</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C633" s="1">
         <v>1.0</v>
@@ -9837,7 +9840,7 @@
         <v>645</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C634" s="1">
         <v>1.0</v>
@@ -9848,7 +9851,7 @@
         <v>646</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C635" s="1">
         <v>1.0</v>
@@ -9859,7 +9862,7 @@
         <v>647</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C636" s="1">
         <v>1.0</v>
@@ -9870,7 +9873,7 @@
         <v>648</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C637" s="1">
         <v>1.0</v>
@@ -9881,7 +9884,7 @@
         <v>649</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C638" s="1">
         <v>1.0</v>
@@ -9892,7 +9895,7 @@
         <v>650</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C639" s="1">
         <v>1.0</v>
@@ -9903,7 +9906,7 @@
         <v>651</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C640" s="1">
         <v>1.0</v>
@@ -9914,7 +9917,7 @@
         <v>652</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C641" s="1">
         <v>1.0</v>
@@ -9925,7 +9928,7 @@
         <v>653</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C642" s="1">
         <v>1.0</v>
@@ -9936,7 +9939,7 @@
         <v>654</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C643" s="1">
         <v>1.0</v>
@@ -9947,7 +9950,7 @@
         <v>655</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C644" s="1">
         <v>1.0</v>
@@ -9958,7 +9961,7 @@
         <v>656</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C645" s="1">
         <v>1.0</v>
@@ -9969,7 +9972,7 @@
         <v>657</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C646" s="1">
         <v>1.0</v>
@@ -9980,7 +9983,7 @@
         <v>658</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C647" s="1">
         <v>1.0</v>
@@ -9991,7 +9994,7 @@
         <v>659</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C648" s="1">
         <v>1.0</v>
@@ -10002,7 +10005,7 @@
         <v>660</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C649" s="1">
         <v>1.0</v>
@@ -10013,7 +10016,7 @@
         <v>661</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C650" s="1">
         <v>1.0</v>
@@ -10024,7 +10027,7 @@
         <v>662</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C651" s="1">
         <v>1.0</v>
@@ -10035,7 +10038,7 @@
         <v>663</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C652" s="1">
         <v>1.0</v>
@@ -10046,7 +10049,7 @@
         <v>664</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C653" s="1">
         <v>1.0</v>
@@ -10057,7 +10060,7 @@
         <v>665</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C654" s="1">
         <v>1.0</v>
@@ -10068,7 +10071,7 @@
         <v>666</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C655" s="1">
         <v>1.0</v>
@@ -10079,7 +10082,7 @@
         <v>667</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C656" s="1">
         <v>1.0</v>
@@ -10090,7 +10093,7 @@
         <v>668</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C657" s="1">
         <v>1.0</v>
@@ -10101,7 +10104,7 @@
         <v>669</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C658" s="1">
         <v>1.0</v>
@@ -10112,7 +10115,7 @@
         <v>670</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C659" s="1">
         <v>1.0</v>
@@ -10123,7 +10126,7 @@
         <v>671</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C660" s="1">
         <v>1.0</v>
@@ -10134,7 +10137,7 @@
         <v>672</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C661" s="1">
         <v>1.0</v>
@@ -10145,7 +10148,7 @@
         <v>673</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C662" s="1">
         <v>1.0</v>
@@ -10156,7 +10159,7 @@
         <v>674</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C663" s="1">
         <v>1.0</v>
@@ -10167,7 +10170,7 @@
         <v>675</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C664" s="1">
         <v>1.0</v>
@@ -10178,7 +10181,7 @@
         <v>676</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C665" s="1">
         <v>1.0</v>
@@ -10189,7 +10192,7 @@
         <v>677</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C666" s="1">
         <v>1.0</v>
@@ -10200,7 +10203,7 @@
         <v>678</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C667" s="1">
         <v>1.0</v>
@@ -10211,7 +10214,7 @@
         <v>679</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C668" s="1">
         <v>1.0</v>
@@ -10222,7 +10225,7 @@
         <v>680</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C669" s="1">
         <v>1.0</v>
@@ -10233,7 +10236,7 @@
         <v>681</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C670" s="1">
         <v>1.0</v>
@@ -10244,7 +10247,7 @@
         <v>682</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C671" s="1">
         <v>1.0</v>
@@ -10255,7 +10258,7 @@
         <v>683</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C672" s="1">
         <v>1.0</v>
@@ -10266,7 +10269,7 @@
         <v>684</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C673" s="1">
         <v>1.0</v>
@@ -10277,7 +10280,7 @@
         <v>685</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C674" s="1">
         <v>1.0</v>
@@ -10288,7 +10291,7 @@
         <v>686</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C675" s="1">
         <v>1.0</v>
@@ -10299,7 +10302,7 @@
         <v>687</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C676" s="1">
         <v>1.0</v>
@@ -10310,7 +10313,7 @@
         <v>688</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C677" s="1">
         <v>1.0</v>
@@ -10321,7 +10324,7 @@
         <v>689</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C678" s="1">
         <v>1.0</v>
@@ -10332,7 +10335,7 @@
         <v>690</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C679" s="1">
         <v>1.0</v>
@@ -10343,7 +10346,7 @@
         <v>691</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C680" s="1">
         <v>1.0</v>
@@ -10354,7 +10357,7 @@
         <v>692</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C681" s="1">
         <v>1.0</v>
@@ -10365,7 +10368,7 @@
         <v>693</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C682" s="1">
         <v>1.0</v>
@@ -10376,7 +10379,7 @@
         <v>694</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C683" s="1">
         <v>1.0</v>
@@ -10387,7 +10390,7 @@
         <v>695</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C684" s="1">
         <v>1.0</v>
@@ -10398,7 +10401,7 @@
         <v>696</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C685" s="1">
         <v>1.0</v>
@@ -10409,7 +10412,7 @@
         <v>697</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C686" s="1">
         <v>1.0</v>
@@ -10420,7 +10423,7 @@
         <v>698</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C687" s="1">
         <v>1.0</v>
@@ -10431,7 +10434,7 @@
         <v>699</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C688" s="1">
         <v>1.0</v>
@@ -10442,7 +10445,7 @@
         <v>700</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C689" s="1">
         <v>1.0</v>
@@ -10453,7 +10456,7 @@
         <v>701</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C690" s="1">
         <v>1.0</v>
@@ -10464,7 +10467,7 @@
         <v>702</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C691" s="1">
         <v>1.0</v>
@@ -10475,7 +10478,7 @@
         <v>703</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C692" s="1">
         <v>1.0</v>
@@ -10486,7 +10489,7 @@
         <v>704</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C693" s="1">
         <v>1.0</v>
@@ -10497,7 +10500,7 @@
         <v>705</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C694" s="1">
         <v>1.0</v>
@@ -10508,7 +10511,7 @@
         <v>706</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C695" s="1">
         <v>1.0</v>
@@ -10519,7 +10522,7 @@
         <v>707</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C696" s="1">
         <v>1.0</v>
@@ -10530,7 +10533,7 @@
         <v>708</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C697" s="1">
         <v>1.0</v>
@@ -10541,7 +10544,7 @@
         <v>709</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C698" s="1">
         <v>1.0</v>
@@ -10552,7 +10555,7 @@
         <v>710</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C699" s="1">
         <v>1.0</v>
@@ -10563,7 +10566,7 @@
         <v>711</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C700" s="1">
         <v>1.0</v>
@@ -10574,7 +10577,7 @@
         <v>712</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C701" s="1">
         <v>1.0</v>
@@ -10585,7 +10588,7 @@
         <v>713</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C702" s="1">
         <v>1.0</v>
@@ -10596,7 +10599,7 @@
         <v>714</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C703" s="1">
         <v>1.0</v>
@@ -10607,7 +10610,7 @@
         <v>715</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C704" s="1">
         <v>1.0</v>
@@ -10618,7 +10621,7 @@
         <v>716</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C705" s="1">
         <v>1.0</v>
@@ -10629,7 +10632,7 @@
         <v>717</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C706" s="1">
         <v>1.0</v>
@@ -10640,7 +10643,7 @@
         <v>718</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C707" s="1">
         <v>1.0</v>
@@ -10651,7 +10654,7 @@
         <v>719</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C708" s="1">
         <v>1.0</v>
@@ -10662,7 +10665,7 @@
         <v>720</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C709" s="1">
         <v>1.0</v>
@@ -10673,7 +10676,7 @@
         <v>721</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C710" s="1">
         <v>1.0</v>
@@ -10684,7 +10687,7 @@
         <v>722</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C711" s="1">
         <v>1.0</v>
@@ -10695,7 +10698,7 @@
         <v>723</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C712" s="1">
         <v>1.0</v>
@@ -10706,7 +10709,7 @@
         <v>724</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C713" s="1">
         <v>1.0</v>
@@ -10717,7 +10720,7 @@
         <v>725</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C714" s="1">
         <v>1.0</v>
@@ -10728,7 +10731,7 @@
         <v>726</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C715" s="1">
         <v>1.0</v>
@@ -10739,7 +10742,7 @@
         <v>727</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C716" s="1">
         <v>1.0</v>
@@ -10750,7 +10753,7 @@
         <v>728</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C717" s="1">
         <v>1.0</v>
@@ -10761,7 +10764,7 @@
         <v>729</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C718" s="1">
         <v>1.0</v>
@@ -10772,7 +10775,7 @@
         <v>730</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C719" s="1">
         <v>1.0</v>
@@ -10783,7 +10786,7 @@
         <v>731</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C720" s="1">
         <v>1.0</v>
@@ -10794,7 +10797,7 @@
         <v>732</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C721" s="1">
         <v>1.0</v>
@@ -10805,7 +10808,7 @@
         <v>733</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C722" s="1">
         <v>1.0</v>
@@ -10816,7 +10819,7 @@
         <v>734</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C723" s="1">
         <v>1.0</v>
@@ -10827,7 +10830,7 @@
         <v>735</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C724" s="1">
         <v>1.0</v>
@@ -10838,7 +10841,7 @@
         <v>736</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C725" s="1">
         <v>1.0</v>
@@ -10849,7 +10852,7 @@
         <v>737</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C726" s="1">
         <v>1.0</v>
@@ -10860,7 +10863,7 @@
         <v>738</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C727" s="1">
         <v>1.0</v>
@@ -10871,7 +10874,7 @@
         <v>739</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C728" s="1">
         <v>1.0</v>
@@ -10882,7 +10885,7 @@
         <v>740</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C729" s="1">
         <v>1.0</v>
@@ -10893,7 +10896,7 @@
         <v>741</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C730" s="1">
         <v>1.0</v>
@@ -10904,7 +10907,7 @@
         <v>742</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C731" s="1">
         <v>1.0</v>
@@ -10915,7 +10918,7 @@
         <v>743</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C732" s="1">
         <v>1.0</v>
@@ -10923,10 +10926,10 @@
     </row>
     <row r="733">
       <c r="A733" s="1" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C733" s="1">
         <v>1.0</v>
@@ -10937,7 +10940,7 @@
         <v>742</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C734" s="1">
         <v>1.0</v>
@@ -10948,7 +10951,7 @@
         <v>743</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C735" s="1">
         <v>1.0</v>
@@ -10959,7 +10962,7 @@
         <v>744</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C736" s="1">
         <v>1.0</v>
@@ -10970,7 +10973,7 @@
         <v>745</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C737" s="1">
         <v>1.0</v>
@@ -10981,7 +10984,7 @@
         <v>746</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C738" s="1">
         <v>1.0</v>
@@ -10992,7 +10995,7 @@
         <v>747</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C739" s="1">
         <v>1.0</v>
@@ -11003,7 +11006,7 @@
         <v>748</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C740" s="1">
         <v>1.0</v>
@@ -11014,7 +11017,7 @@
         <v>749</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C741" s="1">
         <v>1.0</v>
@@ -11025,7 +11028,7 @@
         <v>750</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C742" s="1">
         <v>1.0</v>
@@ -11033,10 +11036,10 @@
     </row>
     <row r="743">
       <c r="A743" s="1" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C743" s="1">
         <v>1.0</v>
@@ -11047,7 +11050,7 @@
         <v>749</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C744" s="1">
         <v>1.0</v>
@@ -11058,7 +11061,7 @@
         <v>750</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C745" s="1">
         <v>1.0</v>
@@ -11066,10 +11069,10 @@
     </row>
     <row r="746">
       <c r="A746" s="1" t="s">
-        <v>400</v>
+        <v>751</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C746" s="1">
         <v>1.0</v>
@@ -11077,10 +11080,10 @@
     </row>
     <row r="747">
       <c r="A747" s="1" t="s">
-        <v>751</v>
+        <v>401</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C747" s="1">
         <v>1.0</v>
@@ -11091,9 +11094,20 @@
         <v>752</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C748" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C749" s="1">
         <v>1.0</v>
       </c>
     </row>

--- a/Content Buckets.xlsx
+++ b/Content Buckets.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="753">
   <si>
     <t>Lexical item</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>disinfected</t>
-  </si>
-  <si>
-    <t>disposable</t>
   </si>
   <si>
     <t>disposablemasks</t>
@@ -4632,7 +4629,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -4641,6 +4638,29 @@
       <c r="C209" s="1">
         <v>1.0</v>
       </c>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
+      <c r="L209" s="3"/>
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+      <c r="P209" s="3"/>
+      <c r="Q209" s="3"/>
+      <c r="R209" s="3"/>
+      <c r="S209" s="3"/>
+      <c r="T209" s="3"/>
+      <c r="U209" s="3"/>
+      <c r="V209" s="3"/>
+      <c r="W209" s="3"/>
+      <c r="X209" s="3"/>
+      <c r="Y209" s="3"/>
+      <c r="Z209" s="3"/>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
@@ -4779,7 +4799,7 @@
       <c r="Z213" s="3"/>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B214" s="1" t="s">
@@ -4788,29 +4808,6 @@
       <c r="C214" s="1">
         <v>1.0</v>
       </c>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3"/>
-      <c r="P214" s="3"/>
-      <c r="Q214" s="3"/>
-      <c r="R214" s="3"/>
-      <c r="S214" s="3"/>
-      <c r="T214" s="3"/>
-      <c r="U214" s="3"/>
-      <c r="V214" s="3"/>
-      <c r="W214" s="3"/>
-      <c r="X214" s="3"/>
-      <c r="Y214" s="3"/>
-      <c r="Z214" s="3"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
@@ -5260,21 +5257,24 @@
         <v>4</v>
       </c>
       <c r="C255" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C256" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="257">
@@ -5288,7 +5288,7 @@
         <v>-1.0</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="258">
@@ -5302,7 +5302,7 @@
         <v>-1.0</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259">
@@ -5310,27 +5310,27 @@
         <v>262</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="C259" s="1">
         <v>-1.0</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C260" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C260" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="261">
@@ -5338,13 +5338,13 @@
         <v>266</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C261" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C261" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="262">
@@ -5352,13 +5352,13 @@
         <v>267</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C262" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C262" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="263">
@@ -5366,13 +5366,13 @@
         <v>268</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C263" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C263" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="264">
@@ -5380,13 +5380,13 @@
         <v>269</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C264" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C264" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="265">
@@ -5394,13 +5394,13 @@
         <v>270</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C265" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D265" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C265" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="266">
@@ -5408,13 +5408,13 @@
         <v>271</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C266" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D266" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C266" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="267">
@@ -5422,13 +5422,13 @@
         <v>272</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C267" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C267" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="268">
@@ -5436,13 +5436,13 @@
         <v>273</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C268" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C268" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="269">
@@ -5450,13 +5450,13 @@
         <v>274</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C269" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C269" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="270">
@@ -5464,13 +5464,13 @@
         <v>275</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C270" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C270" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="271">
@@ -5478,13 +5478,13 @@
         <v>276</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C271" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C271" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="272">
@@ -5492,13 +5492,13 @@
         <v>277</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C272" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C272" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="273">
@@ -5506,13 +5506,10 @@
         <v>278</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C273" s="1">
         <v>-1.0</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="274">
@@ -5520,7 +5517,7 @@
         <v>279</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C274" s="1">
         <v>-1.0</v>
@@ -5531,7 +5528,7 @@
         <v>280</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C275" s="1">
         <v>-1.0</v>
@@ -5542,7 +5539,7 @@
         <v>281</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C276" s="1">
         <v>-1.0</v>
@@ -5553,7 +5550,7 @@
         <v>282</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C277" s="1">
         <v>-1.0</v>
@@ -5564,7 +5561,7 @@
         <v>283</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C278" s="1">
         <v>-1.0</v>
@@ -5575,7 +5572,7 @@
         <v>284</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C279" s="1">
         <v>-1.0</v>
@@ -5586,7 +5583,7 @@
         <v>285</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C280" s="1">
         <v>-1.0</v>
@@ -5597,7 +5594,7 @@
         <v>286</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C281" s="1">
         <v>-1.0</v>
@@ -5608,7 +5605,7 @@
         <v>287</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C282" s="1">
         <v>-1.0</v>
@@ -5619,7 +5616,7 @@
         <v>288</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C283" s="1">
         <v>-1.0</v>
@@ -5630,7 +5627,7 @@
         <v>289</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C284" s="1">
         <v>-1.0</v>
@@ -5641,7 +5638,7 @@
         <v>290</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C285" s="1">
         <v>-1.0</v>
@@ -5652,7 +5649,7 @@
         <v>291</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C286" s="1">
         <v>-1.0</v>
@@ -5663,7 +5660,7 @@
         <v>292</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C287" s="1">
         <v>-1.0</v>
@@ -5674,7 +5671,7 @@
         <v>293</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C288" s="1">
         <v>-1.0</v>
@@ -5685,7 +5682,7 @@
         <v>294</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C289" s="1">
         <v>-1.0</v>
@@ -5696,7 +5693,7 @@
         <v>295</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C290" s="1">
         <v>-1.0</v>
@@ -5707,7 +5704,7 @@
         <v>296</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C291" s="1">
         <v>-1.0</v>
@@ -5718,7 +5715,7 @@
         <v>297</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C292" s="1">
         <v>-1.0</v>
@@ -5729,7 +5726,7 @@
         <v>298</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C293" s="1">
         <v>-1.0</v>
@@ -5740,7 +5737,7 @@
         <v>299</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C294" s="1">
         <v>-1.0</v>
@@ -5751,7 +5748,7 @@
         <v>300</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C295" s="1">
         <v>-1.0</v>
@@ -5762,7 +5759,7 @@
         <v>301</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C296" s="1">
         <v>-1.0</v>
@@ -5773,7 +5770,7 @@
         <v>302</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C297" s="1">
         <v>-1.0</v>
@@ -5784,7 +5781,7 @@
         <v>303</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C298" s="1">
         <v>-1.0</v>
@@ -5795,7 +5792,7 @@
         <v>304</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C299" s="1">
         <v>-1.0</v>
@@ -5806,7 +5803,7 @@
         <v>305</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C300" s="1">
         <v>-1.0</v>
@@ -5817,7 +5814,7 @@
         <v>306</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C301" s="1">
         <v>-1.0</v>
@@ -5828,7 +5825,7 @@
         <v>307</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C302" s="1">
         <v>-1.0</v>
@@ -5839,7 +5836,7 @@
         <v>308</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C303" s="1">
         <v>-1.0</v>
@@ -5850,7 +5847,7 @@
         <v>309</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C304" s="1">
         <v>-1.0</v>
@@ -5861,7 +5858,7 @@
         <v>310</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C305" s="1">
         <v>-1.0</v>
@@ -5872,24 +5869,27 @@
         <v>311</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="C306" s="1">
         <v>-1.0</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="C307" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D307" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C307" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="308">
@@ -5897,13 +5897,13 @@
         <v>315</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C308" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D308" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C308" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="309">
@@ -5911,27 +5911,27 @@
         <v>316</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C309" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="C310" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D310" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C310" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="311">
@@ -5939,13 +5939,13 @@
         <v>320</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C311" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C311" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="312">
@@ -5953,13 +5953,13 @@
         <v>321</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C312" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D312" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C312" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="313">
@@ -5967,13 +5967,13 @@
         <v>322</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C313" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D313" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C313" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="314">
@@ -5981,27 +5981,27 @@
         <v>323</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C314" s="1">
         <v>1.0</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="C315" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C315" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="316">
@@ -6009,13 +6009,13 @@
         <v>327</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C316" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D316" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C316" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="317">
@@ -6023,13 +6023,13 @@
         <v>328</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D317" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C317" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="318">
@@ -6037,13 +6037,13 @@
         <v>329</v>
       </c>
       <c r="B318" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C318" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D318" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C318" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="319">
@@ -6051,13 +6051,13 @@
         <v>330</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C319" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C319" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="320">
@@ -6065,13 +6065,13 @@
         <v>331</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C320" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C320" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="321">
@@ -6079,13 +6079,13 @@
         <v>332</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C321" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D321" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C321" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="322">
@@ -6093,13 +6093,13 @@
         <v>333</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C322" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D322" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C322" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="323">
@@ -6107,13 +6107,13 @@
         <v>334</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C323" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D323" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C323" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="324">
@@ -6121,13 +6121,13 @@
         <v>335</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C324" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C324" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="325">
@@ -6135,13 +6135,13 @@
         <v>336</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C325" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D325" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C325" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="326">
@@ -6149,13 +6149,13 @@
         <v>337</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C326" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D326" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C326" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="327">
@@ -6163,13 +6163,13 @@
         <v>338</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C327" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C327" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="328">
@@ -6177,13 +6177,13 @@
         <v>339</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C328" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D328" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C328" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="329">
@@ -6191,13 +6191,13 @@
         <v>340</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C329" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D329" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C329" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="330">
@@ -6205,13 +6205,13 @@
         <v>341</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C330" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D330" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C330" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="331">
@@ -6219,13 +6219,13 @@
         <v>342</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C331" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D331" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C331" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="332">
@@ -6233,13 +6233,13 @@
         <v>343</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C332" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D332" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C332" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="333">
@@ -6247,13 +6247,13 @@
         <v>344</v>
       </c>
       <c r="B333" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C333" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D333" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C333" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="334">
@@ -6261,13 +6261,13 @@
         <v>345</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C334" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D334" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C334" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="335">
@@ -6275,13 +6275,10 @@
         <v>346</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C335" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>326</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="336">
@@ -6289,7 +6286,7 @@
         <v>347</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C336" s="1">
         <v>-1.0</v>
@@ -6300,7 +6297,7 @@
         <v>348</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C337" s="1">
         <v>-1.0</v>
@@ -6311,7 +6308,7 @@
         <v>349</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C338" s="1">
         <v>-1.0</v>
@@ -6322,7 +6319,7 @@
         <v>350</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C339" s="1">
         <v>-1.0</v>
@@ -6333,7 +6330,7 @@
         <v>351</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C340" s="1">
         <v>-1.0</v>
@@ -6344,7 +6341,7 @@
         <v>352</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C341" s="1">
         <v>-1.0</v>
@@ -6352,10 +6349,10 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>353</v>
+        <v>44</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C342" s="1">
         <v>-1.0</v>
@@ -6363,10 +6360,10 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C343" s="1">
         <v>-1.0</v>
@@ -6377,7 +6374,7 @@
         <v>354</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C344" s="1">
         <v>-1.0</v>
@@ -6388,7 +6385,7 @@
         <v>355</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C345" s="1">
         <v>-1.0</v>
@@ -6399,7 +6396,7 @@
         <v>356</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C346" s="1">
         <v>-1.0</v>
@@ -6410,7 +6407,7 @@
         <v>357</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C347" s="1">
         <v>-1.0</v>
@@ -6421,7 +6418,7 @@
         <v>358</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C348" s="1">
         <v>-1.0</v>
@@ -6432,7 +6429,7 @@
         <v>359</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C349" s="1">
         <v>-1.0</v>
@@ -6443,7 +6440,7 @@
         <v>360</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C350" s="1">
         <v>-1.0</v>
@@ -6454,7 +6451,7 @@
         <v>361</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C351" s="1">
         <v>-1.0</v>
@@ -6465,7 +6462,7 @@
         <v>362</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C352" s="1">
         <v>-1.0</v>
@@ -6476,7 +6473,7 @@
         <v>363</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C353" s="1">
         <v>-1.0</v>
@@ -6487,7 +6484,7 @@
         <v>364</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C354" s="1">
         <v>-1.0</v>
@@ -6498,7 +6495,7 @@
         <v>365</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C355" s="1">
         <v>-1.0</v>
@@ -6509,7 +6506,7 @@
         <v>366</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C356" s="1">
         <v>-1.0</v>
@@ -6520,7 +6517,7 @@
         <v>367</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C357" s="1">
         <v>-1.0</v>
@@ -6531,7 +6528,7 @@
         <v>368</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C358" s="1">
         <v>-1.0</v>
@@ -6542,7 +6539,7 @@
         <v>369</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C359" s="1">
         <v>-1.0</v>
@@ -6550,10 +6547,10 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>370</v>
+        <v>99</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C360" s="1">
         <v>-1.0</v>
@@ -6561,10 +6558,10 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C361" s="1">
         <v>-1.0</v>
@@ -6572,10 +6569,10 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>135</v>
+        <v>370</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C362" s="1">
         <v>-1.0</v>
@@ -6586,7 +6583,7 @@
         <v>371</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C363" s="1">
         <v>-1.0</v>
@@ -6597,7 +6594,7 @@
         <v>372</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C364" s="1">
         <v>-1.0</v>
@@ -6608,7 +6605,7 @@
         <v>373</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C365" s="1">
         <v>-1.0</v>
@@ -6619,7 +6616,7 @@
         <v>374</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C366" s="1">
         <v>-1.0</v>
@@ -6630,7 +6627,7 @@
         <v>375</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C367" s="1">
         <v>-1.0</v>
@@ -6641,7 +6638,7 @@
         <v>376</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C368" s="1">
         <v>-1.0</v>
@@ -6652,7 +6649,7 @@
         <v>377</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C369" s="1">
         <v>-1.0</v>
@@ -6663,7 +6660,7 @@
         <v>378</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C370" s="1">
         <v>-1.0</v>
@@ -6674,7 +6671,7 @@
         <v>379</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C371" s="1">
         <v>-1.0</v>
@@ -6685,7 +6682,7 @@
         <v>380</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C372" s="1">
         <v>-1.0</v>
@@ -6696,7 +6693,7 @@
         <v>381</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C373" s="1">
         <v>-1.0</v>
@@ -6707,7 +6704,7 @@
         <v>382</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C374" s="1">
         <v>-1.0</v>
@@ -6718,7 +6715,7 @@
         <v>383</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C375" s="1">
         <v>-1.0</v>
@@ -6729,7 +6726,7 @@
         <v>384</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C376" s="1">
         <v>-1.0</v>
@@ -6740,7 +6737,7 @@
         <v>385</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C377" s="1">
         <v>-1.0</v>
@@ -6751,7 +6748,7 @@
         <v>386</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C378" s="1">
         <v>-1.0</v>
@@ -6762,7 +6759,7 @@
         <v>387</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C379" s="1">
         <v>-1.0</v>
@@ -6770,10 +6767,10 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>388</v>
+        <v>211</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C380" s="1">
         <v>-1.0</v>
@@ -6781,10 +6778,10 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>212</v>
+        <v>388</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C381" s="1">
         <v>-1.0</v>
@@ -6792,10 +6789,10 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>389</v>
+        <v>212</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C382" s="1">
         <v>-1.0</v>
@@ -6806,7 +6803,7 @@
         <v>213</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C383" s="1">
         <v>-1.0</v>
@@ -6817,7 +6814,7 @@
         <v>214</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C384" s="1">
         <v>-1.0</v>
@@ -6828,7 +6825,7 @@
         <v>215</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C385" s="1">
         <v>-1.0</v>
@@ -6836,10 +6833,10 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>216</v>
+        <v>389</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C386" s="1">
         <v>-1.0</v>
@@ -6850,7 +6847,7 @@
         <v>390</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C387" s="1">
         <v>-1.0</v>
@@ -6861,7 +6858,7 @@
         <v>391</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C388" s="1">
         <v>-1.0</v>
@@ -6872,7 +6869,7 @@
         <v>392</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C389" s="1">
         <v>-1.0</v>
@@ -6883,7 +6880,7 @@
         <v>393</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C390" s="1">
         <v>-1.0</v>
@@ -6894,7 +6891,7 @@
         <v>394</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C391" s="1">
         <v>-1.0</v>
@@ -6905,7 +6902,7 @@
         <v>395</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C392" s="1">
         <v>-1.0</v>
@@ -6916,7 +6913,7 @@
         <v>396</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C393" s="1">
         <v>-1.0</v>
@@ -6927,7 +6924,7 @@
         <v>397</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C394" s="1">
         <v>-1.0</v>
@@ -6938,7 +6935,7 @@
         <v>398</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C395" s="1">
         <v>-1.0</v>
@@ -6949,7 +6946,7 @@
         <v>399</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C396" s="1">
         <v>-1.0</v>
@@ -6960,7 +6957,7 @@
         <v>400</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C397" s="1">
         <v>-1.0</v>
@@ -6971,7 +6968,7 @@
         <v>401</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C398" s="1">
         <v>-1.0</v>
@@ -6982,24 +6979,27 @@
         <v>402</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>325</v>
+        <v>403</v>
       </c>
       <c r="C399" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B400" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B400" s="1" t="s">
+      <c r="C400" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D400" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C400" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="401">
@@ -7007,13 +7007,13 @@
         <v>406</v>
       </c>
       <c r="B401" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C401" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D401" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C401" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="402">
@@ -7021,13 +7021,13 @@
         <v>407</v>
       </c>
       <c r="B402" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C402" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D402" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C402" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="403">
@@ -7035,13 +7035,13 @@
         <v>408</v>
       </c>
       <c r="B403" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C403" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D403" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C403" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D403" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="404">
@@ -7049,13 +7049,13 @@
         <v>409</v>
       </c>
       <c r="B404" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C404" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D404" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C404" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="405">
@@ -7063,27 +7063,27 @@
         <v>410</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C405" s="1">
         <v>1.0</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B406" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="C406" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D406" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C406" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="407">
@@ -7091,13 +7091,13 @@
         <v>414</v>
       </c>
       <c r="B407" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C407" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D407" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C407" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="408">
@@ -7105,13 +7105,13 @@
         <v>415</v>
       </c>
       <c r="B408" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C408" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D408" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C408" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="409">
@@ -7119,13 +7119,13 @@
         <v>416</v>
       </c>
       <c r="B409" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C409" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D409" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C409" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="410">
@@ -7133,13 +7133,13 @@
         <v>417</v>
       </c>
       <c r="B410" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C410" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D410" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C410" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="411">
@@ -7147,13 +7147,13 @@
         <v>418</v>
       </c>
       <c r="B411" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C411" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D411" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C411" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D411" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="412">
@@ -7161,13 +7161,13 @@
         <v>419</v>
       </c>
       <c r="B412" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C412" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D412" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C412" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D412" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="413">
@@ -7175,13 +7175,13 @@
         <v>420</v>
       </c>
       <c r="B413" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C413" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D413" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C413" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D413" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="414">
@@ -7189,13 +7189,13 @@
         <v>421</v>
       </c>
       <c r="B414" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C414" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D414" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C414" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D414" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="415">
@@ -7203,13 +7203,13 @@
         <v>422</v>
       </c>
       <c r="B415" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C415" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D415" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C415" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D415" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="416">
@@ -7217,41 +7217,41 @@
         <v>423</v>
       </c>
       <c r="B416" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C416" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D416" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C416" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D416" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="B417" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C417" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D417" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C417" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="B418" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C418" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D418" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C418" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D418" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="419">
@@ -7259,13 +7259,13 @@
         <v>425</v>
       </c>
       <c r="B419" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C419" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D419" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C419" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="420">
@@ -7273,13 +7273,13 @@
         <v>426</v>
       </c>
       <c r="B420" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C420" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D420" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C420" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D420" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="421">
@@ -7287,13 +7287,13 @@
         <v>427</v>
       </c>
       <c r="B421" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C421" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D421" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C421" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D421" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="422">
@@ -7301,13 +7301,13 @@
         <v>428</v>
       </c>
       <c r="B422" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C422" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D422" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C422" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="423">
@@ -7315,13 +7315,13 @@
         <v>429</v>
       </c>
       <c r="B423" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C423" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D423" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C423" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="424">
@@ -7329,13 +7329,13 @@
         <v>430</v>
       </c>
       <c r="B424" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C424" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D424" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C424" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="425">
@@ -7343,13 +7343,13 @@
         <v>431</v>
       </c>
       <c r="B425" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C425" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D425" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C425" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D425" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="426">
@@ -7357,13 +7357,13 @@
         <v>432</v>
       </c>
       <c r="B426" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C426" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D426" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C426" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="427">
@@ -7371,13 +7371,13 @@
         <v>433</v>
       </c>
       <c r="B427" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C427" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D427" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C427" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="428">
@@ -7385,13 +7385,13 @@
         <v>434</v>
       </c>
       <c r="B428" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C428" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D428" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C428" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="429">
@@ -7399,13 +7399,13 @@
         <v>435</v>
       </c>
       <c r="B429" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C429" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D429" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C429" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="430">
@@ -7413,13 +7413,13 @@
         <v>436</v>
       </c>
       <c r="B430" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C430" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D430" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C430" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="431">
@@ -7427,13 +7427,13 @@
         <v>437</v>
       </c>
       <c r="B431" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C431" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D431" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C431" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D431" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="432">
@@ -7441,13 +7441,13 @@
         <v>438</v>
       </c>
       <c r="B432" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C432" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D432" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C432" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="433">
@@ -7455,13 +7455,13 @@
         <v>439</v>
       </c>
       <c r="B433" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C433" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D433" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C433" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D433" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="434">
@@ -7469,13 +7469,13 @@
         <v>440</v>
       </c>
       <c r="B434" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C434" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D434" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C434" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="435">
@@ -7483,13 +7483,13 @@
         <v>441</v>
       </c>
       <c r="B435" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C435" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D435" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C435" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D435" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="436">
@@ -7497,13 +7497,13 @@
         <v>442</v>
       </c>
       <c r="B436" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C436" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D436" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C436" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D436" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="437">
@@ -7511,13 +7511,13 @@
         <v>443</v>
       </c>
       <c r="B437" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C437" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D437" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C437" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="438">
@@ -7525,13 +7525,13 @@
         <v>444</v>
       </c>
       <c r="B438" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C438" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D438" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C438" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D438" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="439">
@@ -7539,13 +7539,13 @@
         <v>445</v>
       </c>
       <c r="B439" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C439" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D439" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C439" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D439" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="440">
@@ -7553,13 +7553,13 @@
         <v>446</v>
       </c>
       <c r="B440" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C440" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D440" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C440" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D440" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="441">
@@ -7567,13 +7567,13 @@
         <v>447</v>
       </c>
       <c r="B441" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C441" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D441" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C441" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="442">
@@ -7581,13 +7581,13 @@
         <v>448</v>
       </c>
       <c r="B442" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C442" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D442" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C442" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D442" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="443">
@@ -7595,13 +7595,13 @@
         <v>449</v>
       </c>
       <c r="B443" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C443" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D443" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C443" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="444">
@@ -7609,13 +7609,13 @@
         <v>450</v>
       </c>
       <c r="B444" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C444" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D444" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C444" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="445">
@@ -7623,13 +7623,13 @@
         <v>451</v>
       </c>
       <c r="B445" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C445" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D445" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C445" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="446">
@@ -7637,13 +7637,13 @@
         <v>452</v>
       </c>
       <c r="B446" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C446" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D446" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C446" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="447">
@@ -7651,13 +7651,13 @@
         <v>453</v>
       </c>
       <c r="B447" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C447" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D447" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C447" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D447" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="448">
@@ -7665,27 +7665,27 @@
         <v>454</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="C448" s="1">
         <v>1.0</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B449" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="C449" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D449" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="C449" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="450">
@@ -7693,13 +7693,13 @@
         <v>458</v>
       </c>
       <c r="B450" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C450" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D450" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="C450" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="451">
@@ -7707,13 +7707,13 @@
         <v>459</v>
       </c>
       <c r="B451" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C451" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D451" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="C451" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D451" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="452">
@@ -7721,13 +7721,13 @@
         <v>460</v>
       </c>
       <c r="B452" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C452" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D452" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="C452" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="453">
@@ -7735,13 +7735,13 @@
         <v>461</v>
       </c>
       <c r="B453" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C453" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D453" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="C453" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="454">
@@ -7749,13 +7749,13 @@
         <v>462</v>
       </c>
       <c r="B454" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C454" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D454" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="C454" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D454" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="455">
@@ -7763,27 +7763,27 @@
         <v>463</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C455" s="1">
         <v>1.0</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B456" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="C456" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D456" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C456" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="457">
@@ -7791,13 +7791,13 @@
         <v>467</v>
       </c>
       <c r="B457" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C457" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D457" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C457" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D457" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="458">
@@ -7805,13 +7805,13 @@
         <v>468</v>
       </c>
       <c r="B458" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C458" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D458" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C458" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D458" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="459">
@@ -7819,13 +7819,13 @@
         <v>469</v>
       </c>
       <c r="B459" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C459" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D459" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C459" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D459" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="460">
@@ -7833,13 +7833,13 @@
         <v>470</v>
       </c>
       <c r="B460" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C460" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D460" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C460" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D460" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="461">
@@ -7847,27 +7847,27 @@
         <v>471</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C461" s="1">
         <v>1.0</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C462" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D462" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C462" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D462" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="463">
@@ -7875,13 +7875,13 @@
         <v>474</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C463" s="1">
         <v>1.0</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="464">
@@ -7889,13 +7889,13 @@
         <v>475</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C464" s="1">
         <v>1.0</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="465">
@@ -7903,13 +7903,13 @@
         <v>476</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C465" s="1">
         <v>1.0</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="466">
@@ -7917,13 +7917,13 @@
         <v>477</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C466" s="1">
         <v>1.0</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="467">
@@ -7931,13 +7931,13 @@
         <v>478</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C467" s="1">
         <v>1.0</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="468">
@@ -7945,13 +7945,13 @@
         <v>479</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C468" s="1">
         <v>1.0</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="469">
@@ -7959,13 +7959,13 @@
         <v>480</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C469" s="1">
         <v>1.0</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="470">
@@ -7973,13 +7973,13 @@
         <v>481</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C470" s="1">
         <v>1.0</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="471">
@@ -7987,13 +7987,13 @@
         <v>482</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C471" s="1">
         <v>1.0</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="472">
@@ -8001,13 +8001,13 @@
         <v>483</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C472" s="1">
         <v>1.0</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="473">
@@ -8015,13 +8015,13 @@
         <v>484</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C473" s="1">
         <v>1.0</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="474">
@@ -8029,13 +8029,13 @@
         <v>485</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C474" s="1">
         <v>1.0</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="475">
@@ -8043,13 +8043,13 @@
         <v>486</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C475" s="1">
         <v>1.0</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="476">
@@ -8057,13 +8057,13 @@
         <v>487</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C476" s="1">
         <v>1.0</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="477">
@@ -8071,13 +8071,13 @@
         <v>488</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C477" s="1">
         <v>1.0</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="478">
@@ -8085,13 +8085,13 @@
         <v>489</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C478" s="1">
         <v>1.0</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="479">
@@ -8099,13 +8099,13 @@
         <v>490</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C479" s="1">
         <v>1.0</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="480">
@@ -8113,13 +8113,13 @@
         <v>491</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C480" s="1">
         <v>1.0</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="481">
@@ -8127,13 +8127,13 @@
         <v>492</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C481" s="1">
         <v>1.0</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="482">
@@ -8141,13 +8141,13 @@
         <v>493</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C482" s="1">
         <v>1.0</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="483">
@@ -8155,13 +8155,13 @@
         <v>494</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C483" s="1">
         <v>1.0</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="484">
@@ -8169,13 +8169,13 @@
         <v>495</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C484" s="1">
         <v>1.0</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="485">
@@ -8183,41 +8183,41 @@
         <v>496</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C485" s="1">
         <v>1.0</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C486" s="1">
         <v>1.0</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C487" s="1">
         <v>1.0</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="488">
@@ -8225,13 +8225,13 @@
         <v>498</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C488" s="1">
         <v>1.0</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="489">
@@ -8239,13 +8239,13 @@
         <v>499</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C489" s="1">
         <v>1.0</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="490">
@@ -8253,21 +8253,18 @@
         <v>500</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="C490" s="1">
         <v>1.0</v>
-      </c>
-      <c r="D490" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C491" s="1">
         <v>1.0</v>
@@ -8278,7 +8275,7 @@
         <v>503</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C492" s="1">
         <v>1.0</v>
@@ -8289,7 +8286,7 @@
         <v>504</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C493" s="1">
         <v>1.0</v>
@@ -8300,7 +8297,7 @@
         <v>505</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C494" s="1">
         <v>1.0</v>
@@ -8311,7 +8308,7 @@
         <v>506</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C495" s="1">
         <v>1.0</v>
@@ -8322,7 +8319,7 @@
         <v>507</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C496" s="1">
         <v>1.0</v>
@@ -8333,7 +8330,7 @@
         <v>508</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C497" s="1">
         <v>1.0</v>
@@ -8344,7 +8341,7 @@
         <v>509</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C498" s="1">
         <v>1.0</v>
@@ -8355,7 +8352,7 @@
         <v>510</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C499" s="1">
         <v>1.0</v>
@@ -8366,7 +8363,7 @@
         <v>511</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C500" s="1">
         <v>1.0</v>
@@ -8377,7 +8374,7 @@
         <v>512</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C501" s="1">
         <v>1.0</v>
@@ -8388,7 +8385,7 @@
         <v>513</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C502" s="1">
         <v>1.0</v>
@@ -8399,7 +8396,7 @@
         <v>514</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C503" s="1">
         <v>1.0</v>
@@ -8410,7 +8407,7 @@
         <v>515</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C504" s="1">
         <v>1.0</v>
@@ -8421,7 +8418,7 @@
         <v>516</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C505" s="1">
         <v>1.0</v>
@@ -8432,7 +8429,7 @@
         <v>517</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C506" s="1">
         <v>1.0</v>
@@ -8443,7 +8440,7 @@
         <v>518</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C507" s="1">
         <v>1.0</v>
@@ -8454,7 +8451,7 @@
         <v>519</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C508" s="1">
         <v>1.0</v>
@@ -8465,7 +8462,7 @@
         <v>520</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C509" s="1">
         <v>1.0</v>
@@ -8476,7 +8473,7 @@
         <v>521</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C510" s="1">
         <v>1.0</v>
@@ -8487,7 +8484,7 @@
         <v>522</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C511" s="1">
         <v>1.0</v>
@@ -8498,7 +8495,7 @@
         <v>523</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C512" s="1">
         <v>1.0</v>
@@ -8509,7 +8506,7 @@
         <v>524</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C513" s="1">
         <v>1.0</v>
@@ -8520,7 +8517,7 @@
         <v>525</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C514" s="1">
         <v>1.0</v>
@@ -8531,7 +8528,7 @@
         <v>526</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C515" s="1">
         <v>1.0</v>
@@ -8542,7 +8539,7 @@
         <v>527</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C516" s="1">
         <v>1.0</v>
@@ -8553,7 +8550,7 @@
         <v>528</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C517" s="1">
         <v>1.0</v>
@@ -8564,7 +8561,7 @@
         <v>529</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C518" s="1">
         <v>1.0</v>
@@ -8575,7 +8572,7 @@
         <v>530</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C519" s="1">
         <v>1.0</v>
@@ -8586,7 +8583,7 @@
         <v>531</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C520" s="1">
         <v>1.0</v>
@@ -8597,7 +8594,7 @@
         <v>532</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C521" s="1">
         <v>1.0</v>
@@ -8608,7 +8605,7 @@
         <v>533</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C522" s="1">
         <v>1.0</v>
@@ -8619,7 +8616,7 @@
         <v>534</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C523" s="1">
         <v>1.0</v>
@@ -8630,7 +8627,7 @@
         <v>535</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C524" s="1">
         <v>1.0</v>
@@ -8641,7 +8638,7 @@
         <v>536</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C525" s="1">
         <v>1.0</v>
@@ -8652,7 +8649,7 @@
         <v>537</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C526" s="1">
         <v>1.0</v>
@@ -8663,7 +8660,7 @@
         <v>538</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C527" s="1">
         <v>1.0</v>
@@ -8674,7 +8671,7 @@
         <v>539</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C528" s="1">
         <v>1.0</v>
@@ -8685,7 +8682,7 @@
         <v>540</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C529" s="1">
         <v>1.0</v>
@@ -8696,7 +8693,7 @@
         <v>541</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C530" s="1">
         <v>1.0</v>
@@ -8707,7 +8704,7 @@
         <v>542</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C531" s="1">
         <v>1.0</v>
@@ -8718,7 +8715,7 @@
         <v>543</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C532" s="1">
         <v>1.0</v>
@@ -8729,7 +8726,7 @@
         <v>544</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C533" s="1">
         <v>1.0</v>
@@ -8740,7 +8737,7 @@
         <v>545</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C534" s="1">
         <v>1.0</v>
@@ -8751,7 +8748,7 @@
         <v>546</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C535" s="1">
         <v>1.0</v>
@@ -8762,7 +8759,7 @@
         <v>547</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C536" s="1">
         <v>1.0</v>
@@ -8773,7 +8770,7 @@
         <v>548</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C537" s="1">
         <v>1.0</v>
@@ -8784,7 +8781,7 @@
         <v>549</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C538" s="1">
         <v>1.0</v>
@@ -8795,7 +8792,7 @@
         <v>550</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C539" s="1">
         <v>1.0</v>
@@ -8806,7 +8803,7 @@
         <v>551</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C540" s="1">
         <v>1.0</v>
@@ -8817,7 +8814,7 @@
         <v>552</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C541" s="1">
         <v>1.0</v>
@@ -8828,7 +8825,7 @@
         <v>553</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C542" s="1">
         <v>1.0</v>
@@ -8839,7 +8836,7 @@
         <v>554</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C543" s="1">
         <v>1.0</v>
@@ -8850,7 +8847,7 @@
         <v>555</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C544" s="1">
         <v>1.0</v>
@@ -8861,7 +8858,7 @@
         <v>556</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C545" s="1">
         <v>1.0</v>
@@ -8872,7 +8869,7 @@
         <v>557</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C546" s="1">
         <v>1.0</v>
@@ -8883,7 +8880,7 @@
         <v>558</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C547" s="1">
         <v>1.0</v>
@@ -8894,7 +8891,7 @@
         <v>559</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C548" s="1">
         <v>1.0</v>
@@ -8905,7 +8902,7 @@
         <v>560</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C549" s="1">
         <v>1.0</v>
@@ -8916,7 +8913,7 @@
         <v>561</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C550" s="1">
         <v>1.0</v>
@@ -8927,7 +8924,7 @@
         <v>562</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C551" s="1">
         <v>1.0</v>
@@ -8938,7 +8935,7 @@
         <v>563</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C552" s="1">
         <v>1.0</v>
@@ -8949,7 +8946,7 @@
         <v>564</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C553" s="1">
         <v>1.0</v>
@@ -8960,7 +8957,7 @@
         <v>565</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C554" s="1">
         <v>1.0</v>
@@ -8971,7 +8968,7 @@
         <v>566</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C555" s="1">
         <v>1.0</v>
@@ -8982,7 +8979,7 @@
         <v>567</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C556" s="1">
         <v>1.0</v>
@@ -8993,7 +8990,7 @@
         <v>568</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C557" s="1">
         <v>1.0</v>
@@ -9004,7 +9001,7 @@
         <v>569</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C558" s="1">
         <v>1.0</v>
@@ -9015,7 +9012,7 @@
         <v>570</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C559" s="1">
         <v>1.0</v>
@@ -9026,7 +9023,7 @@
         <v>571</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C560" s="1">
         <v>1.0</v>
@@ -9037,7 +9034,7 @@
         <v>572</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C561" s="1">
         <v>1.0</v>
@@ -9048,7 +9045,7 @@
         <v>573</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C562" s="1">
         <v>1.0</v>
@@ -9059,7 +9056,7 @@
         <v>574</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C563" s="1">
         <v>1.0</v>
@@ -9070,7 +9067,7 @@
         <v>575</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C564" s="1">
         <v>1.0</v>
@@ -9081,7 +9078,7 @@
         <v>576</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C565" s="1">
         <v>1.0</v>
@@ -9092,7 +9089,7 @@
         <v>577</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C566" s="1">
         <v>1.0</v>
@@ -9103,7 +9100,7 @@
         <v>578</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C567" s="1">
         <v>1.0</v>
@@ -9114,7 +9111,7 @@
         <v>579</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C568" s="1">
         <v>1.0</v>
@@ -9125,7 +9122,7 @@
         <v>580</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C569" s="1">
         <v>1.0</v>
@@ -9136,7 +9133,7 @@
         <v>581</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C570" s="1">
         <v>1.0</v>
@@ -9147,7 +9144,7 @@
         <v>582</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C571" s="1">
         <v>1.0</v>
@@ -9158,7 +9155,7 @@
         <v>583</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C572" s="1">
         <v>1.0</v>
@@ -9169,7 +9166,7 @@
         <v>584</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C573" s="1">
         <v>1.0</v>
@@ -9180,7 +9177,7 @@
         <v>585</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C574" s="1">
         <v>1.0</v>
@@ -9191,7 +9188,7 @@
         <v>586</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C575" s="1">
         <v>1.0</v>
@@ -9202,7 +9199,7 @@
         <v>587</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C576" s="1">
         <v>1.0</v>
@@ -9213,7 +9210,7 @@
         <v>588</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C577" s="1">
         <v>1.0</v>
@@ -9224,7 +9221,7 @@
         <v>589</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C578" s="1">
         <v>1.0</v>
@@ -9235,7 +9232,7 @@
         <v>590</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C579" s="1">
         <v>1.0</v>
@@ -9246,7 +9243,7 @@
         <v>591</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C580" s="1">
         <v>1.0</v>
@@ -9257,7 +9254,7 @@
         <v>592</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C581" s="1">
         <v>1.0</v>
@@ -9268,7 +9265,7 @@
         <v>593</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C582" s="1">
         <v>1.0</v>
@@ -9279,7 +9276,7 @@
         <v>594</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C583" s="1">
         <v>1.0</v>
@@ -9290,7 +9287,7 @@
         <v>595</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C584" s="1">
         <v>1.0</v>
@@ -9301,7 +9298,7 @@
         <v>596</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C585" s="1">
         <v>1.0</v>
@@ -9312,7 +9309,7 @@
         <v>597</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C586" s="1">
         <v>1.0</v>
@@ -9323,7 +9320,7 @@
         <v>598</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C587" s="1">
         <v>1.0</v>
@@ -9334,7 +9331,7 @@
         <v>599</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C588" s="1">
         <v>1.0</v>
@@ -9345,7 +9342,7 @@
         <v>600</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C589" s="1">
         <v>1.0</v>
@@ -9356,7 +9353,7 @@
         <v>601</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C590" s="1">
         <v>1.0</v>
@@ -9367,7 +9364,7 @@
         <v>602</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C591" s="1">
         <v>1.0</v>
@@ -9378,7 +9375,7 @@
         <v>603</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C592" s="1">
         <v>1.0</v>
@@ -9389,7 +9386,7 @@
         <v>604</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C593" s="1">
         <v>1.0</v>
@@ -9400,7 +9397,7 @@
         <v>605</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C594" s="1">
         <v>1.0</v>
@@ -9411,7 +9408,7 @@
         <v>606</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C595" s="1">
         <v>1.0</v>
@@ -9422,7 +9419,7 @@
         <v>607</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C596" s="1">
         <v>1.0</v>
@@ -9433,7 +9430,7 @@
         <v>608</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C597" s="1">
         <v>1.0</v>
@@ -9444,7 +9441,7 @@
         <v>609</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C598" s="1">
         <v>1.0</v>
@@ -9455,7 +9452,7 @@
         <v>610</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C599" s="1">
         <v>1.0</v>
@@ -9466,7 +9463,7 @@
         <v>611</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C600" s="1">
         <v>1.0</v>
@@ -9477,7 +9474,7 @@
         <v>612</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C601" s="1">
         <v>1.0</v>
@@ -9488,7 +9485,7 @@
         <v>613</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C602" s="1">
         <v>1.0</v>
@@ -9499,7 +9496,7 @@
         <v>614</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C603" s="1">
         <v>1.0</v>
@@ -9510,7 +9507,7 @@
         <v>615</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C604" s="1">
         <v>1.0</v>
@@ -9521,7 +9518,7 @@
         <v>616</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C605" s="1">
         <v>1.0</v>
@@ -9532,7 +9529,7 @@
         <v>617</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C606" s="1">
         <v>1.0</v>
@@ -9543,7 +9540,7 @@
         <v>618</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C607" s="1">
         <v>1.0</v>
@@ -9554,7 +9551,7 @@
         <v>619</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C608" s="1">
         <v>1.0</v>
@@ -9565,7 +9562,7 @@
         <v>620</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C609" s="1">
         <v>1.0</v>
@@ -9576,7 +9573,7 @@
         <v>621</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C610" s="1">
         <v>1.0</v>
@@ -9587,7 +9584,7 @@
         <v>622</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C611" s="1">
         <v>1.0</v>
@@ -9598,7 +9595,7 @@
         <v>623</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C612" s="1">
         <v>1.0</v>
@@ -9609,7 +9606,7 @@
         <v>624</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C613" s="1">
         <v>1.0</v>
@@ -9620,7 +9617,7 @@
         <v>625</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C614" s="1">
         <v>1.0</v>
@@ -9631,7 +9628,7 @@
         <v>626</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C615" s="1">
         <v>1.0</v>
@@ -9642,7 +9639,7 @@
         <v>627</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C616" s="1">
         <v>1.0</v>
@@ -9653,7 +9650,7 @@
         <v>628</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C617" s="1">
         <v>1.0</v>
@@ -9664,7 +9661,7 @@
         <v>629</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C618" s="1">
         <v>1.0</v>
@@ -9675,7 +9672,7 @@
         <v>630</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C619" s="1">
         <v>1.0</v>
@@ -9686,7 +9683,7 @@
         <v>631</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C620" s="1">
         <v>1.0</v>
@@ -9697,7 +9694,7 @@
         <v>632</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C621" s="1">
         <v>1.0</v>
@@ -9708,7 +9705,7 @@
         <v>633</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C622" s="1">
         <v>1.0</v>
@@ -9719,7 +9716,7 @@
         <v>634</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C623" s="1">
         <v>1.0</v>
@@ -9730,7 +9727,7 @@
         <v>635</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C624" s="1">
         <v>1.0</v>
@@ -9741,7 +9738,7 @@
         <v>636</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C625" s="1">
         <v>1.0</v>
@@ -9752,7 +9749,7 @@
         <v>637</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C626" s="1">
         <v>1.0</v>
@@ -9763,7 +9760,7 @@
         <v>638</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C627" s="1">
         <v>1.0</v>
@@ -9774,7 +9771,7 @@
         <v>639</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C628" s="1">
         <v>1.0</v>
@@ -9785,7 +9782,7 @@
         <v>640</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C629" s="1">
         <v>1.0</v>
@@ -9796,7 +9793,7 @@
         <v>641</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C630" s="1">
         <v>1.0</v>
@@ -9807,7 +9804,7 @@
         <v>642</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C631" s="1">
         <v>1.0</v>
@@ -9818,7 +9815,7 @@
         <v>643</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C632" s="1">
         <v>1.0</v>
@@ -9829,7 +9826,7 @@
         <v>644</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C633" s="1">
         <v>1.0</v>
@@ -9840,7 +9837,7 @@
         <v>645</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C634" s="1">
         <v>1.0</v>
@@ -9851,7 +9848,7 @@
         <v>646</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C635" s="1">
         <v>1.0</v>
@@ -9862,7 +9859,7 @@
         <v>647</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C636" s="1">
         <v>1.0</v>
@@ -9873,7 +9870,7 @@
         <v>648</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C637" s="1">
         <v>1.0</v>
@@ -9884,7 +9881,7 @@
         <v>649</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C638" s="1">
         <v>1.0</v>
@@ -9895,7 +9892,7 @@
         <v>650</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C639" s="1">
         <v>1.0</v>
@@ -9906,7 +9903,7 @@
         <v>651</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C640" s="1">
         <v>1.0</v>
@@ -9917,7 +9914,7 @@
         <v>652</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C641" s="1">
         <v>1.0</v>
@@ -9928,7 +9925,7 @@
         <v>653</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C642" s="1">
         <v>1.0</v>
@@ -9939,7 +9936,7 @@
         <v>654</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C643" s="1">
         <v>1.0</v>
@@ -9950,7 +9947,7 @@
         <v>655</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C644" s="1">
         <v>1.0</v>
@@ -9961,7 +9958,7 @@
         <v>656</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C645" s="1">
         <v>1.0</v>
@@ -9972,7 +9969,7 @@
         <v>657</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C646" s="1">
         <v>1.0</v>
@@ -9983,7 +9980,7 @@
         <v>658</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C647" s="1">
         <v>1.0</v>
@@ -9994,7 +9991,7 @@
         <v>659</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C648" s="1">
         <v>1.0</v>
@@ -10005,7 +10002,7 @@
         <v>660</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C649" s="1">
         <v>1.0</v>
@@ -10016,7 +10013,7 @@
         <v>661</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C650" s="1">
         <v>1.0</v>
@@ -10027,7 +10024,7 @@
         <v>662</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C651" s="1">
         <v>1.0</v>
@@ -10038,7 +10035,7 @@
         <v>663</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C652" s="1">
         <v>1.0</v>
@@ -10049,7 +10046,7 @@
         <v>664</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C653" s="1">
         <v>1.0</v>
@@ -10060,7 +10057,7 @@
         <v>665</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C654" s="1">
         <v>1.0</v>
@@ -10071,7 +10068,7 @@
         <v>666</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C655" s="1">
         <v>1.0</v>
@@ -10082,7 +10079,7 @@
         <v>667</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C656" s="1">
         <v>1.0</v>
@@ -10093,7 +10090,7 @@
         <v>668</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C657" s="1">
         <v>1.0</v>
@@ -10104,7 +10101,7 @@
         <v>669</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C658" s="1">
         <v>1.0</v>
@@ -10115,7 +10112,7 @@
         <v>670</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C659" s="1">
         <v>1.0</v>
@@ -10126,7 +10123,7 @@
         <v>671</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C660" s="1">
         <v>1.0</v>
@@ -10137,7 +10134,7 @@
         <v>672</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C661" s="1">
         <v>1.0</v>
@@ -10148,7 +10145,7 @@
         <v>673</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C662" s="1">
         <v>1.0</v>
@@ -10159,7 +10156,7 @@
         <v>674</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C663" s="1">
         <v>1.0</v>
@@ -10170,7 +10167,7 @@
         <v>675</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C664" s="1">
         <v>1.0</v>
@@ -10181,7 +10178,7 @@
         <v>676</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C665" s="1">
         <v>1.0</v>
@@ -10192,7 +10189,7 @@
         <v>677</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C666" s="1">
         <v>1.0</v>
@@ -10203,7 +10200,7 @@
         <v>678</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C667" s="1">
         <v>1.0</v>
@@ -10214,7 +10211,7 @@
         <v>679</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C668" s="1">
         <v>1.0</v>
@@ -10225,7 +10222,7 @@
         <v>680</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C669" s="1">
         <v>1.0</v>
@@ -10236,7 +10233,7 @@
         <v>681</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C670" s="1">
         <v>1.0</v>
@@ -10247,7 +10244,7 @@
         <v>682</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C671" s="1">
         <v>1.0</v>
@@ -10258,7 +10255,7 @@
         <v>683</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C672" s="1">
         <v>1.0</v>
@@ -10269,7 +10266,7 @@
         <v>684</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C673" s="1">
         <v>1.0</v>
@@ -10280,7 +10277,7 @@
         <v>685</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C674" s="1">
         <v>1.0</v>
@@ -10291,7 +10288,7 @@
         <v>686</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C675" s="1">
         <v>1.0</v>
@@ -10302,7 +10299,7 @@
         <v>687</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C676" s="1">
         <v>1.0</v>
@@ -10313,7 +10310,7 @@
         <v>688</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C677" s="1">
         <v>1.0</v>
@@ -10324,7 +10321,7 @@
         <v>689</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C678" s="1">
         <v>1.0</v>
@@ -10335,7 +10332,7 @@
         <v>690</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C679" s="1">
         <v>1.0</v>
@@ -10346,7 +10343,7 @@
         <v>691</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C680" s="1">
         <v>1.0</v>
@@ -10357,7 +10354,7 @@
         <v>692</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C681" s="1">
         <v>1.0</v>
@@ -10368,7 +10365,7 @@
         <v>693</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C682" s="1">
         <v>1.0</v>
@@ -10379,7 +10376,7 @@
         <v>694</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C683" s="1">
         <v>1.0</v>
@@ -10390,7 +10387,7 @@
         <v>695</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C684" s="1">
         <v>1.0</v>
@@ -10401,7 +10398,7 @@
         <v>696</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C685" s="1">
         <v>1.0</v>
@@ -10412,7 +10409,7 @@
         <v>697</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C686" s="1">
         <v>1.0</v>
@@ -10423,7 +10420,7 @@
         <v>698</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C687" s="1">
         <v>1.0</v>
@@ -10434,7 +10431,7 @@
         <v>699</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C688" s="1">
         <v>1.0</v>
@@ -10445,7 +10442,7 @@
         <v>700</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C689" s="1">
         <v>1.0</v>
@@ -10456,7 +10453,7 @@
         <v>701</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C690" s="1">
         <v>1.0</v>
@@ -10467,7 +10464,7 @@
         <v>702</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C691" s="1">
         <v>1.0</v>
@@ -10478,7 +10475,7 @@
         <v>703</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C692" s="1">
         <v>1.0</v>
@@ -10489,7 +10486,7 @@
         <v>704</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C693" s="1">
         <v>1.0</v>
@@ -10500,7 +10497,7 @@
         <v>705</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C694" s="1">
         <v>1.0</v>
@@ -10511,7 +10508,7 @@
         <v>706</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C695" s="1">
         <v>1.0</v>
@@ -10522,7 +10519,7 @@
         <v>707</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C696" s="1">
         <v>1.0</v>
@@ -10533,7 +10530,7 @@
         <v>708</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C697" s="1">
         <v>1.0</v>
@@ -10544,7 +10541,7 @@
         <v>709</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C698" s="1">
         <v>1.0</v>
@@ -10555,7 +10552,7 @@
         <v>710</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C699" s="1">
         <v>1.0</v>
@@ -10566,7 +10563,7 @@
         <v>711</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C700" s="1">
         <v>1.0</v>
@@ -10577,7 +10574,7 @@
         <v>712</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C701" s="1">
         <v>1.0</v>
@@ -10588,7 +10585,7 @@
         <v>713</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C702" s="1">
         <v>1.0</v>
@@ -10599,7 +10596,7 @@
         <v>714</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C703" s="1">
         <v>1.0</v>
@@ -10610,7 +10607,7 @@
         <v>715</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C704" s="1">
         <v>1.0</v>
@@ -10621,7 +10618,7 @@
         <v>716</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C705" s="1">
         <v>1.0</v>
@@ -10632,7 +10629,7 @@
         <v>717</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C706" s="1">
         <v>1.0</v>
@@ -10643,7 +10640,7 @@
         <v>718</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C707" s="1">
         <v>1.0</v>
@@ -10654,7 +10651,7 @@
         <v>719</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C708" s="1">
         <v>1.0</v>
@@ -10665,7 +10662,7 @@
         <v>720</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C709" s="1">
         <v>1.0</v>
@@ -10676,7 +10673,7 @@
         <v>721</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C710" s="1">
         <v>1.0</v>
@@ -10687,7 +10684,7 @@
         <v>722</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C711" s="1">
         <v>1.0</v>
@@ -10698,7 +10695,7 @@
         <v>723</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C712" s="1">
         <v>1.0</v>
@@ -10709,7 +10706,7 @@
         <v>724</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C713" s="1">
         <v>1.0</v>
@@ -10720,7 +10717,7 @@
         <v>725</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C714" s="1">
         <v>1.0</v>
@@ -10731,7 +10728,7 @@
         <v>726</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C715" s="1">
         <v>1.0</v>
@@ -10742,7 +10739,7 @@
         <v>727</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C716" s="1">
         <v>1.0</v>
@@ -10753,7 +10750,7 @@
         <v>728</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C717" s="1">
         <v>1.0</v>
@@ -10764,7 +10761,7 @@
         <v>729</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C718" s="1">
         <v>1.0</v>
@@ -10775,7 +10772,7 @@
         <v>730</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C719" s="1">
         <v>1.0</v>
@@ -10786,7 +10783,7 @@
         <v>731</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C720" s="1">
         <v>1.0</v>
@@ -10797,7 +10794,7 @@
         <v>732</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C721" s="1">
         <v>1.0</v>
@@ -10808,7 +10805,7 @@
         <v>733</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C722" s="1">
         <v>1.0</v>
@@ -10819,7 +10816,7 @@
         <v>734</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C723" s="1">
         <v>1.0</v>
@@ -10830,7 +10827,7 @@
         <v>735</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C724" s="1">
         <v>1.0</v>
@@ -10841,7 +10838,7 @@
         <v>736</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C725" s="1">
         <v>1.0</v>
@@ -10852,7 +10849,7 @@
         <v>737</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C726" s="1">
         <v>1.0</v>
@@ -10863,7 +10860,7 @@
         <v>738</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C727" s="1">
         <v>1.0</v>
@@ -10874,7 +10871,7 @@
         <v>739</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C728" s="1">
         <v>1.0</v>
@@ -10885,7 +10882,7 @@
         <v>740</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C729" s="1">
         <v>1.0</v>
@@ -10896,7 +10893,7 @@
         <v>741</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C730" s="1">
         <v>1.0</v>
@@ -10907,7 +10904,7 @@
         <v>742</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C731" s="1">
         <v>1.0</v>
@@ -10918,7 +10915,7 @@
         <v>743</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C732" s="1">
         <v>1.0</v>
@@ -10926,10 +10923,10 @@
     </row>
     <row r="733">
       <c r="A733" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C733" s="1">
         <v>1.0</v>
@@ -10940,7 +10937,7 @@
         <v>742</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C734" s="1">
         <v>1.0</v>
@@ -10951,7 +10948,7 @@
         <v>743</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C735" s="1">
         <v>1.0</v>
@@ -10962,7 +10959,7 @@
         <v>744</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C736" s="1">
         <v>1.0</v>
@@ -10973,7 +10970,7 @@
         <v>745</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C737" s="1">
         <v>1.0</v>
@@ -10984,7 +10981,7 @@
         <v>746</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C738" s="1">
         <v>1.0</v>
@@ -10995,7 +10992,7 @@
         <v>747</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C739" s="1">
         <v>1.0</v>
@@ -11006,7 +11003,7 @@
         <v>748</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C740" s="1">
         <v>1.0</v>
@@ -11017,7 +11014,7 @@
         <v>749</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C741" s="1">
         <v>1.0</v>
@@ -11028,7 +11025,7 @@
         <v>750</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C742" s="1">
         <v>1.0</v>
@@ -11036,10 +11033,10 @@
     </row>
     <row r="743">
       <c r="A743" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C743" s="1">
         <v>1.0</v>
@@ -11050,7 +11047,7 @@
         <v>749</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C744" s="1">
         <v>1.0</v>
@@ -11061,7 +11058,7 @@
         <v>750</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C745" s="1">
         <v>1.0</v>
@@ -11069,10 +11066,10 @@
     </row>
     <row r="746">
       <c r="A746" s="1" t="s">
-        <v>751</v>
+        <v>400</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C746" s="1">
         <v>1.0</v>
@@ -11080,10 +11077,10 @@
     </row>
     <row r="747">
       <c r="A747" s="1" t="s">
-        <v>401</v>
+        <v>751</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C747" s="1">
         <v>1.0</v>
@@ -11094,20 +11091,9 @@
         <v>752</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C748" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B749" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C749" s="1">
         <v>1.0</v>
       </c>
     </row>

--- a/Content Buckets.xlsx
+++ b/Content Buckets.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="751">
   <si>
     <t>Lexical item</t>
   </si>
@@ -817,9 +817,6 @@
     <t>boring</t>
   </si>
   <si>
-    <t>coronavirusblues</t>
-  </si>
-  <si>
     <t>coronaclassroom</t>
   </si>
   <si>
@@ -1375,6 +1372,24 @@
     <t>upsurges</t>
   </si>
   <si>
+    <t>immune</t>
+  </si>
+  <si>
+    <t>Added 07/13/2021</t>
+  </si>
+  <si>
+    <t>immunization</t>
+  </si>
+  <si>
+    <t>Added 07/13/2022</t>
+  </si>
+  <si>
+    <t>inoculation</t>
+  </si>
+  <si>
+    <t>Added 07/13/2023</t>
+  </si>
+  <si>
     <t>americasdoctor</t>
   </si>
   <si>
@@ -1564,15 +1579,9 @@
     <t>bearded</t>
   </si>
   <si>
-    <t>beardgang</t>
-  </si>
-  <si>
     <t>beards</t>
   </si>
   <si>
-    <t>beardselfie</t>
-  </si>
-  <si>
     <t>boat</t>
   </si>
   <si>
@@ -1684,15 +1693,9 @@
     <t>customers</t>
   </si>
   <si>
-    <t>curyhairdontcare</t>
-  </si>
-  <si>
     <t>datenight</t>
   </si>
   <si>
-    <t>disney</t>
-  </si>
-  <si>
     <t>disneygram</t>
   </si>
   <si>
@@ -1789,9 +1792,6 @@
     <t>ilooklikeasurgeon</t>
   </si>
   <si>
-    <t>ilovemylife</t>
-  </si>
-  <si>
     <t>ilustrationart</t>
   </si>
   <si>
@@ -1951,9 +1951,6 @@
     <t>reatlorlife</t>
   </si>
   <si>
-    <t>ronalife</t>
-  </si>
-  <si>
     <t>rowinglife</t>
   </si>
   <si>
@@ -2012,9 +2009,6 @@
   </si>
   <si>
     <t>shop</t>
-  </si>
-  <si>
-    <t>shoplocal</t>
   </si>
   <si>
     <t>shoplocalpdx</t>
@@ -5497,9 +5491,6 @@
       <c r="C272" s="1">
         <v>-1.0</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
@@ -5858,24 +5849,27 @@
         <v>310</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="C305" s="1">
         <v>-1.0</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="C306" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D306" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C306" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="307">
@@ -5883,13 +5877,13 @@
         <v>314</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C307" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="D307" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C307" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="308">
@@ -5897,27 +5891,27 @@
         <v>315</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C308" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="C309" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D309" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C309" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="310">
@@ -5925,13 +5919,13 @@
         <v>319</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C310" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D310" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C310" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="311">
@@ -5939,13 +5933,13 @@
         <v>320</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C311" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C311" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="312">
@@ -5953,13 +5947,13 @@
         <v>321</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C312" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D312" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C312" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="313">
@@ -5967,27 +5961,27 @@
         <v>322</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C313" s="1">
         <v>1.0</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="C314" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D314" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C314" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="315">
@@ -5995,13 +5989,13 @@
         <v>326</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C315" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C315" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="316">
@@ -6009,13 +6003,13 @@
         <v>327</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C316" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D316" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C316" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="317">
@@ -6023,13 +6017,13 @@
         <v>328</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D317" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C317" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="318">
@@ -6037,13 +6031,13 @@
         <v>329</v>
       </c>
       <c r="B318" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C318" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D318" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C318" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="319">
@@ -6051,13 +6045,13 @@
         <v>330</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C319" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C319" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="320">
@@ -6065,13 +6059,13 @@
         <v>331</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C320" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C320" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="321">
@@ -6079,13 +6073,13 @@
         <v>332</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C321" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D321" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C321" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="322">
@@ -6093,13 +6087,13 @@
         <v>333</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C322" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D322" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C322" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="323">
@@ -6107,13 +6101,13 @@
         <v>334</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C323" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D323" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C323" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="324">
@@ -6121,13 +6115,13 @@
         <v>335</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C324" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C324" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="325">
@@ -6135,13 +6129,13 @@
         <v>336</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C325" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D325" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C325" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="326">
@@ -6149,13 +6143,13 @@
         <v>337</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C326" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D326" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C326" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="327">
@@ -6163,13 +6157,13 @@
         <v>338</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C327" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C327" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="328">
@@ -6177,13 +6171,13 @@
         <v>339</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C328" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D328" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C328" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="329">
@@ -6191,13 +6185,13 @@
         <v>340</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C329" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D329" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C329" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="330">
@@ -6205,13 +6199,13 @@
         <v>341</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C330" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D330" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C330" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="331">
@@ -6219,13 +6213,13 @@
         <v>342</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C331" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D331" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C331" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="332">
@@ -6233,13 +6227,13 @@
         <v>343</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C332" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D332" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C332" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="333">
@@ -6247,13 +6241,13 @@
         <v>344</v>
       </c>
       <c r="B333" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C333" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D333" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C333" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="334">
@@ -6261,13 +6255,10 @@
         <v>345</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C334" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>325</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="335">
@@ -6275,7 +6266,7 @@
         <v>346</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C335" s="1">
         <v>-1.0</v>
@@ -6286,7 +6277,7 @@
         <v>347</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C336" s="1">
         <v>-1.0</v>
@@ -6297,7 +6288,7 @@
         <v>348</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C337" s="1">
         <v>-1.0</v>
@@ -6308,7 +6299,7 @@
         <v>349</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C338" s="1">
         <v>-1.0</v>
@@ -6319,7 +6310,7 @@
         <v>350</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C339" s="1">
         <v>-1.0</v>
@@ -6330,7 +6321,7 @@
         <v>351</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C340" s="1">
         <v>-1.0</v>
@@ -6338,10 +6329,10 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>352</v>
+        <v>44</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C341" s="1">
         <v>-1.0</v>
@@ -6349,10 +6340,10 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C342" s="1">
         <v>-1.0</v>
@@ -6363,7 +6354,7 @@
         <v>353</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C343" s="1">
         <v>-1.0</v>
@@ -6374,7 +6365,7 @@
         <v>354</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C344" s="1">
         <v>-1.0</v>
@@ -6385,7 +6376,7 @@
         <v>355</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C345" s="1">
         <v>-1.0</v>
@@ -6396,7 +6387,7 @@
         <v>356</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C346" s="1">
         <v>-1.0</v>
@@ -6407,7 +6398,7 @@
         <v>357</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C347" s="1">
         <v>-1.0</v>
@@ -6418,7 +6409,7 @@
         <v>358</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C348" s="1">
         <v>-1.0</v>
@@ -6429,7 +6420,7 @@
         <v>359</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C349" s="1">
         <v>-1.0</v>
@@ -6440,7 +6431,7 @@
         <v>360</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C350" s="1">
         <v>-1.0</v>
@@ -6451,7 +6442,7 @@
         <v>361</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C351" s="1">
         <v>-1.0</v>
@@ -6462,7 +6453,7 @@
         <v>362</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C352" s="1">
         <v>-1.0</v>
@@ -6473,7 +6464,7 @@
         <v>363</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C353" s="1">
         <v>-1.0</v>
@@ -6484,7 +6475,7 @@
         <v>364</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C354" s="1">
         <v>-1.0</v>
@@ -6495,7 +6486,7 @@
         <v>365</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C355" s="1">
         <v>-1.0</v>
@@ -6506,7 +6497,7 @@
         <v>366</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C356" s="1">
         <v>-1.0</v>
@@ -6517,7 +6508,7 @@
         <v>367</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C357" s="1">
         <v>-1.0</v>
@@ -6528,7 +6519,7 @@
         <v>368</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C358" s="1">
         <v>-1.0</v>
@@ -6536,10 +6527,10 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>369</v>
+        <v>99</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C359" s="1">
         <v>-1.0</v>
@@ -6547,10 +6538,10 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C360" s="1">
         <v>-1.0</v>
@@ -6558,10 +6549,10 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C361" s="1">
         <v>-1.0</v>
@@ -6572,7 +6563,7 @@
         <v>370</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C362" s="1">
         <v>-1.0</v>
@@ -6583,7 +6574,7 @@
         <v>371</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C363" s="1">
         <v>-1.0</v>
@@ -6594,7 +6585,7 @@
         <v>372</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C364" s="1">
         <v>-1.0</v>
@@ -6605,7 +6596,7 @@
         <v>373</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C365" s="1">
         <v>-1.0</v>
@@ -6616,7 +6607,7 @@
         <v>374</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C366" s="1">
         <v>-1.0</v>
@@ -6627,7 +6618,7 @@
         <v>375</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C367" s="1">
         <v>-1.0</v>
@@ -6638,7 +6629,7 @@
         <v>376</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C368" s="1">
         <v>-1.0</v>
@@ -6649,7 +6640,7 @@
         <v>377</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C369" s="1">
         <v>-1.0</v>
@@ -6660,7 +6651,7 @@
         <v>378</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C370" s="1">
         <v>-1.0</v>
@@ -6671,7 +6662,7 @@
         <v>379</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C371" s="1">
         <v>-1.0</v>
@@ -6682,7 +6673,7 @@
         <v>380</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C372" s="1">
         <v>-1.0</v>
@@ -6693,7 +6684,7 @@
         <v>381</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C373" s="1">
         <v>-1.0</v>
@@ -6704,7 +6695,7 @@
         <v>382</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C374" s="1">
         <v>-1.0</v>
@@ -6715,7 +6706,7 @@
         <v>383</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C375" s="1">
         <v>-1.0</v>
@@ -6726,7 +6717,7 @@
         <v>384</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C376" s="1">
         <v>-1.0</v>
@@ -6737,7 +6728,7 @@
         <v>385</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C377" s="1">
         <v>-1.0</v>
@@ -6748,7 +6739,7 @@
         <v>386</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C378" s="1">
         <v>-1.0</v>
@@ -6756,10 +6747,10 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>387</v>
+        <v>211</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C379" s="1">
         <v>-1.0</v>
@@ -6767,10 +6758,10 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>211</v>
+        <v>387</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C380" s="1">
         <v>-1.0</v>
@@ -6778,10 +6769,10 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>388</v>
+        <v>212</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C381" s="1">
         <v>-1.0</v>
@@ -6789,10 +6780,10 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C382" s="1">
         <v>-1.0</v>
@@ -6800,10 +6791,10 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C383" s="1">
         <v>-1.0</v>
@@ -6811,10 +6802,10 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C384" s="1">
         <v>-1.0</v>
@@ -6822,10 +6813,10 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>215</v>
+        <v>388</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C385" s="1">
         <v>-1.0</v>
@@ -6836,7 +6827,7 @@
         <v>389</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C386" s="1">
         <v>-1.0</v>
@@ -6847,7 +6838,7 @@
         <v>390</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C387" s="1">
         <v>-1.0</v>
@@ -6858,7 +6849,7 @@
         <v>391</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C388" s="1">
         <v>-1.0</v>
@@ -6869,7 +6860,7 @@
         <v>392</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C389" s="1">
         <v>-1.0</v>
@@ -6880,7 +6871,7 @@
         <v>393</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C390" s="1">
         <v>-1.0</v>
@@ -6891,7 +6882,7 @@
         <v>394</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C391" s="1">
         <v>-1.0</v>
@@ -6902,7 +6893,7 @@
         <v>395</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C392" s="1">
         <v>-1.0</v>
@@ -6913,7 +6904,7 @@
         <v>396</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C393" s="1">
         <v>-1.0</v>
@@ -6924,7 +6915,7 @@
         <v>397</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C394" s="1">
         <v>-1.0</v>
@@ -6935,7 +6926,7 @@
         <v>398</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C395" s="1">
         <v>-1.0</v>
@@ -6946,7 +6937,7 @@
         <v>399</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C396" s="1">
         <v>-1.0</v>
@@ -6957,7 +6948,7 @@
         <v>400</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C397" s="1">
         <v>-1.0</v>
@@ -6968,24 +6959,27 @@
         <v>401</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>324</v>
+        <v>402</v>
       </c>
       <c r="C398" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B399" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B399" s="1" t="s">
+      <c r="C399" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D399" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C399" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="400">
@@ -6993,13 +6987,13 @@
         <v>405</v>
       </c>
       <c r="B400" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C400" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D400" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C400" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="401">
@@ -7007,13 +7001,13 @@
         <v>406</v>
       </c>
       <c r="B401" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C401" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D401" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C401" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="402">
@@ -7021,13 +7015,13 @@
         <v>407</v>
       </c>
       <c r="B402" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C402" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D402" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C402" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="403">
@@ -7035,13 +7029,13 @@
         <v>408</v>
       </c>
       <c r="B403" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C403" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D403" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C403" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D403" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="404">
@@ -7049,27 +7043,27 @@
         <v>409</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C404" s="1">
         <v>1.0</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B405" s="1" t="s">
+      <c r="C405" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D405" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C405" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="406">
@@ -7077,13 +7071,13 @@
         <v>413</v>
       </c>
       <c r="B406" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C406" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D406" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C406" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="407">
@@ -7091,13 +7085,13 @@
         <v>414</v>
       </c>
       <c r="B407" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C407" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D407" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C407" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="408">
@@ -7105,13 +7099,13 @@
         <v>415</v>
       </c>
       <c r="B408" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C408" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D408" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C408" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="409">
@@ -7119,13 +7113,13 @@
         <v>416</v>
       </c>
       <c r="B409" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C409" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D409" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C409" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="410">
@@ -7133,13 +7127,13 @@
         <v>417</v>
       </c>
       <c r="B410" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C410" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D410" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C410" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="411">
@@ -7147,13 +7141,13 @@
         <v>418</v>
       </c>
       <c r="B411" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C411" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D411" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C411" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D411" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="412">
@@ -7161,13 +7155,13 @@
         <v>419</v>
       </c>
       <c r="B412" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C412" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D412" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C412" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D412" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="413">
@@ -7175,13 +7169,13 @@
         <v>420</v>
       </c>
       <c r="B413" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C413" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D413" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C413" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D413" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="414">
@@ -7189,13 +7183,13 @@
         <v>421</v>
       </c>
       <c r="B414" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C414" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D414" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C414" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D414" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="415">
@@ -7203,41 +7197,41 @@
         <v>422</v>
       </c>
       <c r="B415" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C415" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D415" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C415" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D415" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="B416" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C416" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D416" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C416" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D416" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="B417" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C417" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D417" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C417" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="418">
@@ -7245,13 +7239,13 @@
         <v>424</v>
       </c>
       <c r="B418" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C418" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D418" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C418" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D418" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="419">
@@ -7259,13 +7253,13 @@
         <v>425</v>
       </c>
       <c r="B419" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C419" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D419" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C419" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="420">
@@ -7273,13 +7267,13 @@
         <v>426</v>
       </c>
       <c r="B420" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C420" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D420" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C420" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D420" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="421">
@@ -7287,13 +7281,13 @@
         <v>427</v>
       </c>
       <c r="B421" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C421" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D421" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C421" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D421" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="422">
@@ -7301,13 +7295,13 @@
         <v>428</v>
       </c>
       <c r="B422" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C422" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D422" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C422" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="423">
@@ -7315,13 +7309,13 @@
         <v>429</v>
       </c>
       <c r="B423" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C423" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D423" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C423" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="424">
@@ -7329,13 +7323,13 @@
         <v>430</v>
       </c>
       <c r="B424" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C424" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D424" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C424" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="425">
@@ -7343,13 +7337,13 @@
         <v>431</v>
       </c>
       <c r="B425" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C425" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D425" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C425" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D425" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="426">
@@ -7357,13 +7351,13 @@
         <v>432</v>
       </c>
       <c r="B426" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C426" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D426" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C426" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="427">
@@ -7371,13 +7365,13 @@
         <v>433</v>
       </c>
       <c r="B427" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C427" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D427" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C427" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="428">
@@ -7385,13 +7379,13 @@
         <v>434</v>
       </c>
       <c r="B428" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C428" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D428" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C428" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="429">
@@ -7399,13 +7393,13 @@
         <v>435</v>
       </c>
       <c r="B429" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C429" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D429" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C429" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="430">
@@ -7413,13 +7407,13 @@
         <v>436</v>
       </c>
       <c r="B430" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C430" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D430" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C430" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="431">
@@ -7427,13 +7421,13 @@
         <v>437</v>
       </c>
       <c r="B431" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C431" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D431" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C431" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D431" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="432">
@@ -7441,13 +7435,13 @@
         <v>438</v>
       </c>
       <c r="B432" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C432" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D432" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C432" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="433">
@@ -7455,13 +7449,13 @@
         <v>439</v>
       </c>
       <c r="B433" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C433" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D433" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C433" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D433" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="434">
@@ -7469,13 +7463,13 @@
         <v>440</v>
       </c>
       <c r="B434" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C434" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D434" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C434" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="435">
@@ -7483,13 +7477,13 @@
         <v>441</v>
       </c>
       <c r="B435" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C435" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D435" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C435" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D435" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="436">
@@ -7497,13 +7491,13 @@
         <v>442</v>
       </c>
       <c r="B436" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C436" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D436" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C436" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D436" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="437">
@@ -7511,13 +7505,13 @@
         <v>443</v>
       </c>
       <c r="B437" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C437" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D437" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C437" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="438">
@@ -7525,13 +7519,13 @@
         <v>444</v>
       </c>
       <c r="B438" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C438" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D438" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C438" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D438" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="439">
@@ -7539,13 +7533,13 @@
         <v>445</v>
       </c>
       <c r="B439" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C439" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D439" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C439" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D439" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="440">
@@ -7553,13 +7547,13 @@
         <v>446</v>
       </c>
       <c r="B440" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C440" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D440" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C440" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D440" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="441">
@@ -7567,13 +7561,13 @@
         <v>447</v>
       </c>
       <c r="B441" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C441" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D441" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C441" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="442">
@@ -7581,13 +7575,13 @@
         <v>448</v>
       </c>
       <c r="B442" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C442" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D442" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C442" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D442" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="443">
@@ -7595,13 +7589,13 @@
         <v>449</v>
       </c>
       <c r="B443" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C443" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D443" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C443" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="444">
@@ -7609,13 +7603,13 @@
         <v>450</v>
       </c>
       <c r="B444" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C444" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D444" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C444" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="445">
@@ -7623,13 +7617,13 @@
         <v>451</v>
       </c>
       <c r="B445" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C445" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D445" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C445" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="446">
@@ -7637,13 +7631,13 @@
         <v>452</v>
       </c>
       <c r="B446" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C446" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D446" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C446" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="447">
@@ -7651,21 +7645,21 @@
         <v>453</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C447" s="1">
         <v>1.0</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="C448" s="1">
         <v>1.0</v>
@@ -7679,545 +7673,545 @@
         <v>457</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="C449" s="1">
         <v>1.0</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C450" s="1">
         <v>1.0</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C451" s="1">
         <v>1.0</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B452" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B452" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="C452" s="1">
         <v>1.0</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C453" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D453" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C453" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C454" s="1">
         <v>1.0</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C455" s="1">
         <v>1.0</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C456" s="1">
         <v>1.0</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C457" s="1">
         <v>1.0</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C458" s="1">
         <v>1.0</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B459" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B459" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="C459" s="1">
         <v>1.0</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C460" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D460" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C460" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D460" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C461" s="1">
         <v>1.0</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C462" s="1">
         <v>1.0</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C463" s="1">
         <v>1.0</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C464" s="1">
         <v>1.0</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C465" s="1">
         <v>1.0</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C466" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D466" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C466" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D466" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C467" s="1">
         <v>1.0</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C468" s="1">
         <v>1.0</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C469" s="1">
         <v>1.0</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C470" s="1">
         <v>1.0</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C471" s="1">
         <v>1.0</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C472" s="1">
         <v>1.0</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C473" s="1">
         <v>1.0</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C474" s="1">
         <v>1.0</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C475" s="1">
         <v>1.0</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C476" s="1">
         <v>1.0</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C477" s="1">
         <v>1.0</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C478" s="1">
         <v>1.0</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C479" s="1">
         <v>1.0</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C480" s="1">
         <v>1.0</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C481" s="1">
         <v>1.0</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C482" s="1">
         <v>1.0</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C483" s="1">
         <v>1.0</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C484" s="1">
         <v>1.0</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C485" s="1">
         <v>1.0</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C486" s="1">
         <v>1.0</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C487" s="1">
         <v>1.0</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="488">
@@ -8225,57 +8219,63 @@
         <v>498</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C488" s="1">
         <v>1.0</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C489" s="1">
         <v>1.0</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="C490" s="1">
         <v>1.0</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="C491" s="1">
         <v>1.0</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C492" s="1">
         <v>1.0</v>
@@ -8283,10 +8283,10 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C493" s="1">
         <v>1.0</v>
@@ -8294,10 +8294,10 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C494" s="1">
         <v>1.0</v>
@@ -8305,10 +8305,10 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C495" s="1">
         <v>1.0</v>
@@ -8316,10 +8316,10 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C496" s="1">
         <v>1.0</v>
@@ -8327,10 +8327,10 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C497" s="1">
         <v>1.0</v>
@@ -8338,10 +8338,10 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C498" s="1">
         <v>1.0</v>
@@ -8349,10 +8349,10 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C499" s="1">
         <v>1.0</v>
@@ -8360,10 +8360,10 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C500" s="1">
         <v>1.0</v>
@@ -8371,10 +8371,10 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C501" s="1">
         <v>1.0</v>
@@ -8382,10 +8382,10 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C502" s="1">
         <v>1.0</v>
@@ -8393,10 +8393,10 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C503" s="1">
         <v>1.0</v>
@@ -8404,10 +8404,10 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C504" s="1">
         <v>1.0</v>
@@ -8415,10 +8415,10 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C505" s="1">
         <v>1.0</v>
@@ -8426,10 +8426,10 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C506" s="1">
         <v>1.0</v>
@@ -8437,10 +8437,10 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C507" s="1">
         <v>1.0</v>
@@ -8448,10 +8448,10 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C508" s="1">
         <v>1.0</v>
@@ -8459,10 +8459,10 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C509" s="1">
         <v>1.0</v>
@@ -8470,10 +8470,10 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C510" s="1">
         <v>1.0</v>
@@ -8481,10 +8481,10 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C511" s="1">
         <v>1.0</v>
@@ -8492,10 +8492,10 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C512" s="1">
         <v>1.0</v>
@@ -8503,10 +8503,10 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C513" s="1">
         <v>1.0</v>
@@ -8514,10 +8514,10 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C514" s="1">
         <v>1.0</v>
@@ -8525,10 +8525,10 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C515" s="1">
         <v>1.0</v>
@@ -8536,10 +8536,10 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C516" s="1">
         <v>1.0</v>
@@ -8547,10 +8547,10 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C517" s="1">
         <v>1.0</v>
@@ -8558,10 +8558,10 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C518" s="1">
         <v>1.0</v>
@@ -8569,10 +8569,10 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C519" s="1">
         <v>1.0</v>
@@ -8580,10 +8580,10 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C520" s="1">
         <v>1.0</v>
@@ -8591,10 +8591,10 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C521" s="1">
         <v>1.0</v>
@@ -8602,10 +8602,10 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C522" s="1">
         <v>1.0</v>
@@ -8613,10 +8613,10 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C523" s="1">
         <v>1.0</v>
@@ -8624,10 +8624,10 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C524" s="1">
         <v>1.0</v>
@@ -8635,10 +8635,10 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C525" s="1">
         <v>1.0</v>
@@ -8646,10 +8646,10 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C526" s="1">
         <v>1.0</v>
@@ -8657,10 +8657,10 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C527" s="1">
         <v>1.0</v>
@@ -8668,10 +8668,10 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C528" s="1">
         <v>1.0</v>
@@ -8679,10 +8679,10 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C529" s="1">
         <v>1.0</v>
@@ -8690,10 +8690,10 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C530" s="1">
         <v>1.0</v>
@@ -8701,10 +8701,10 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C531" s="1">
         <v>1.0</v>
@@ -8712,10 +8712,10 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C532" s="1">
         <v>1.0</v>
@@ -8723,10 +8723,10 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C533" s="1">
         <v>1.0</v>
@@ -8734,10 +8734,10 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C534" s="1">
         <v>1.0</v>
@@ -8745,10 +8745,10 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C535" s="1">
         <v>1.0</v>
@@ -8756,10 +8756,10 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C536" s="1">
         <v>1.0</v>
@@ -8767,10 +8767,10 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C537" s="1">
         <v>1.0</v>
@@ -8778,10 +8778,10 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C538" s="1">
         <v>1.0</v>
@@ -8789,10 +8789,10 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C539" s="1">
         <v>1.0</v>
@@ -8800,10 +8800,10 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C540" s="1">
         <v>1.0</v>
@@ -8811,10 +8811,10 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C541" s="1">
         <v>1.0</v>
@@ -8822,10 +8822,10 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C542" s="1">
         <v>1.0</v>
@@ -8833,10 +8833,10 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C543" s="1">
         <v>1.0</v>
@@ -8844,10 +8844,10 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C544" s="1">
         <v>1.0</v>
@@ -8855,10 +8855,10 @@
     </row>
     <row r="545">
       <c r="A545" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C545" s="1">
         <v>1.0</v>
@@ -8866,10 +8866,10 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C546" s="1">
         <v>1.0</v>
@@ -8877,10 +8877,10 @@
     </row>
     <row r="547">
       <c r="A547" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C547" s="1">
         <v>1.0</v>
@@ -8888,10 +8888,10 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C548" s="1">
         <v>1.0</v>
@@ -8899,10 +8899,10 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C549" s="1">
         <v>1.0</v>
@@ -8910,10 +8910,10 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C550" s="1">
         <v>1.0</v>
@@ -8921,10 +8921,10 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C551" s="1">
         <v>1.0</v>
@@ -8932,10 +8932,10 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C552" s="1">
         <v>1.0</v>
@@ -8943,10 +8943,10 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C553" s="1">
         <v>1.0</v>
@@ -8954,10 +8954,10 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C554" s="1">
         <v>1.0</v>
@@ -8965,10 +8965,10 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C555" s="1">
         <v>1.0</v>
@@ -8976,10 +8976,10 @@
     </row>
     <row r="556">
       <c r="A556" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C556" s="1">
         <v>1.0</v>
@@ -8987,10 +8987,10 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C557" s="1">
         <v>1.0</v>
@@ -8998,10 +8998,10 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C558" s="1">
         <v>1.0</v>
@@ -9009,10 +9009,10 @@
     </row>
     <row r="559">
       <c r="A559" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C559" s="1">
         <v>1.0</v>
@@ -9020,10 +9020,10 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C560" s="1">
         <v>1.0</v>
@@ -9031,10 +9031,10 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C561" s="1">
         <v>1.0</v>
@@ -9042,10 +9042,10 @@
     </row>
     <row r="562">
       <c r="A562" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C562" s="1">
         <v>1.0</v>
@@ -9053,10 +9053,10 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C563" s="1">
         <v>1.0</v>
@@ -9064,10 +9064,10 @@
     </row>
     <row r="564">
       <c r="A564" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C564" s="1">
         <v>1.0</v>
@@ -9075,10 +9075,10 @@
     </row>
     <row r="565">
       <c r="A565" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C565" s="1">
         <v>1.0</v>
@@ -9086,10 +9086,10 @@
     </row>
     <row r="566">
       <c r="A566" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C566" s="1">
         <v>1.0</v>
@@ -9097,10 +9097,10 @@
     </row>
     <row r="567">
       <c r="A567" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C567" s="1">
         <v>1.0</v>
@@ -9108,10 +9108,10 @@
     </row>
     <row r="568">
       <c r="A568" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C568" s="1">
         <v>1.0</v>
@@ -9119,10 +9119,10 @@
     </row>
     <row r="569">
       <c r="A569" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C569" s="1">
         <v>1.0</v>
@@ -9130,10 +9130,10 @@
     </row>
     <row r="570">
       <c r="A570" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C570" s="1">
         <v>1.0</v>
@@ -9141,10 +9141,10 @@
     </row>
     <row r="571">
       <c r="A571" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C571" s="1">
         <v>1.0</v>
@@ -9152,10 +9152,10 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C572" s="1">
         <v>1.0</v>
@@ -9163,10 +9163,10 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C573" s="1">
         <v>1.0</v>
@@ -9174,10 +9174,10 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C574" s="1">
         <v>1.0</v>
@@ -9185,10 +9185,10 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C575" s="1">
         <v>1.0</v>
@@ -9196,10 +9196,10 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C576" s="1">
         <v>1.0</v>
@@ -9207,10 +9207,10 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C577" s="1">
         <v>1.0</v>
@@ -9218,10 +9218,10 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C578" s="1">
         <v>1.0</v>
@@ -9229,10 +9229,10 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C579" s="1">
         <v>1.0</v>
@@ -9240,10 +9240,10 @@
     </row>
     <row r="580">
       <c r="A580" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C580" s="1">
         <v>1.0</v>
@@ -9251,10 +9251,10 @@
     </row>
     <row r="581">
       <c r="A581" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C581" s="1">
         <v>1.0</v>
@@ -9262,10 +9262,10 @@
     </row>
     <row r="582">
       <c r="A582" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C582" s="1">
         <v>1.0</v>
@@ -9273,10 +9273,10 @@
     </row>
     <row r="583">
       <c r="A583" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C583" s="1">
         <v>1.0</v>
@@ -9284,10 +9284,10 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C584" s="1">
         <v>1.0</v>
@@ -9295,10 +9295,10 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C585" s="1">
         <v>1.0</v>
@@ -9306,10 +9306,10 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C586" s="1">
         <v>1.0</v>
@@ -9317,10 +9317,10 @@
     </row>
     <row r="587">
       <c r="A587" s="1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C587" s="1">
         <v>1.0</v>
@@ -9328,10 +9328,10 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C588" s="1">
         <v>1.0</v>
@@ -9339,10 +9339,10 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C589" s="1">
         <v>1.0</v>
@@ -9350,10 +9350,10 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C590" s="1">
         <v>1.0</v>
@@ -9361,10 +9361,10 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C591" s="1">
         <v>1.0</v>
@@ -9372,10 +9372,10 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C592" s="1">
         <v>1.0</v>
@@ -9383,10 +9383,10 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C593" s="1">
         <v>1.0</v>
@@ -9394,10 +9394,10 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C594" s="1">
         <v>1.0</v>
@@ -9405,10 +9405,10 @@
     </row>
     <row r="595">
       <c r="A595" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C595" s="1">
         <v>1.0</v>
@@ -9416,10 +9416,10 @@
     </row>
     <row r="596">
       <c r="A596" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C596" s="1">
         <v>1.0</v>
@@ -9427,10 +9427,10 @@
     </row>
     <row r="597">
       <c r="A597" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C597" s="1">
         <v>1.0</v>
@@ -9438,10 +9438,10 @@
     </row>
     <row r="598">
       <c r="A598" s="1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C598" s="1">
         <v>1.0</v>
@@ -9449,10 +9449,10 @@
     </row>
     <row r="599">
       <c r="A599" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C599" s="1">
         <v>1.0</v>
@@ -9460,10 +9460,10 @@
     </row>
     <row r="600">
       <c r="A600" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C600" s="1">
         <v>1.0</v>
@@ -9471,10 +9471,10 @@
     </row>
     <row r="601">
       <c r="A601" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C601" s="1">
         <v>1.0</v>
@@ -9482,10 +9482,10 @@
     </row>
     <row r="602">
       <c r="A602" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C602" s="1">
         <v>1.0</v>
@@ -9493,10 +9493,10 @@
     </row>
     <row r="603">
       <c r="A603" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C603" s="1">
         <v>1.0</v>
@@ -9504,10 +9504,10 @@
     </row>
     <row r="604">
       <c r="A604" s="1" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C604" s="1">
         <v>1.0</v>
@@ -9515,10 +9515,10 @@
     </row>
     <row r="605">
       <c r="A605" s="1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C605" s="1">
         <v>1.0</v>
@@ -9526,10 +9526,10 @@
     </row>
     <row r="606">
       <c r="A606" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C606" s="1">
         <v>1.0</v>
@@ -9537,10 +9537,10 @@
     </row>
     <row r="607">
       <c r="A607" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C607" s="1">
         <v>1.0</v>
@@ -9548,10 +9548,10 @@
     </row>
     <row r="608">
       <c r="A608" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C608" s="1">
         <v>1.0</v>
@@ -9559,10 +9559,10 @@
     </row>
     <row r="609">
       <c r="A609" s="1" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C609" s="1">
         <v>1.0</v>
@@ -9570,10 +9570,10 @@
     </row>
     <row r="610">
       <c r="A610" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C610" s="1">
         <v>1.0</v>
@@ -9581,10 +9581,10 @@
     </row>
     <row r="611">
       <c r="A611" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C611" s="1">
         <v>1.0</v>
@@ -9592,10 +9592,10 @@
     </row>
     <row r="612">
       <c r="A612" s="1" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C612" s="1">
         <v>1.0</v>
@@ -9603,10 +9603,10 @@
     </row>
     <row r="613">
       <c r="A613" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C613" s="1">
         <v>1.0</v>
@@ -9614,10 +9614,10 @@
     </row>
     <row r="614">
       <c r="A614" s="1" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C614" s="1">
         <v>1.0</v>
@@ -9625,10 +9625,10 @@
     </row>
     <row r="615">
       <c r="A615" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C615" s="1">
         <v>1.0</v>
@@ -9636,10 +9636,10 @@
     </row>
     <row r="616">
       <c r="A616" s="1" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C616" s="1">
         <v>1.0</v>
@@ -9647,10 +9647,10 @@
     </row>
     <row r="617">
       <c r="A617" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C617" s="1">
         <v>1.0</v>
@@ -9658,10 +9658,10 @@
     </row>
     <row r="618">
       <c r="A618" s="1" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C618" s="1">
         <v>1.0</v>
@@ -9669,10 +9669,10 @@
     </row>
     <row r="619">
       <c r="A619" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C619" s="1">
         <v>1.0</v>
@@ -9680,10 +9680,10 @@
     </row>
     <row r="620">
       <c r="A620" s="1" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C620" s="1">
         <v>1.0</v>
@@ -9691,10 +9691,10 @@
     </row>
     <row r="621">
       <c r="A621" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C621" s="1">
         <v>1.0</v>
@@ -9702,10 +9702,10 @@
     </row>
     <row r="622">
       <c r="A622" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C622" s="1">
         <v>1.0</v>
@@ -9713,10 +9713,10 @@
     </row>
     <row r="623">
       <c r="A623" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C623" s="1">
         <v>1.0</v>
@@ -9724,10 +9724,10 @@
     </row>
     <row r="624">
       <c r="A624" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C624" s="1">
         <v>1.0</v>
@@ -9735,10 +9735,10 @@
     </row>
     <row r="625">
       <c r="A625" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C625" s="1">
         <v>1.0</v>
@@ -9746,10 +9746,10 @@
     </row>
     <row r="626">
       <c r="A626" s="1" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C626" s="1">
         <v>1.0</v>
@@ -9757,10 +9757,10 @@
     </row>
     <row r="627">
       <c r="A627" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C627" s="1">
         <v>1.0</v>
@@ -9768,10 +9768,10 @@
     </row>
     <row r="628">
       <c r="A628" s="1" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C628" s="1">
         <v>1.0</v>
@@ -9779,10 +9779,10 @@
     </row>
     <row r="629">
       <c r="A629" s="1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C629" s="1">
         <v>1.0</v>
@@ -9790,10 +9790,10 @@
     </row>
     <row r="630">
       <c r="A630" s="1" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C630" s="1">
         <v>1.0</v>
@@ -9801,10 +9801,10 @@
     </row>
     <row r="631">
       <c r="A631" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C631" s="1">
         <v>1.0</v>
@@ -9812,10 +9812,10 @@
     </row>
     <row r="632">
       <c r="A632" s="1" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C632" s="1">
         <v>1.0</v>
@@ -9823,10 +9823,10 @@
     </row>
     <row r="633">
       <c r="A633" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C633" s="1">
         <v>1.0</v>
@@ -9834,10 +9834,10 @@
     </row>
     <row r="634">
       <c r="A634" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C634" s="1">
         <v>1.0</v>
@@ -9845,10 +9845,10 @@
     </row>
     <row r="635">
       <c r="A635" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C635" s="1">
         <v>1.0</v>
@@ -9856,10 +9856,10 @@
     </row>
     <row r="636">
       <c r="A636" s="1" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C636" s="1">
         <v>1.0</v>
@@ -9867,10 +9867,10 @@
     </row>
     <row r="637">
       <c r="A637" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C637" s="1">
         <v>1.0</v>
@@ -9878,10 +9878,10 @@
     </row>
     <row r="638">
       <c r="A638" s="1" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C638" s="1">
         <v>1.0</v>
@@ -9889,10 +9889,10 @@
     </row>
     <row r="639">
       <c r="A639" s="1" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C639" s="1">
         <v>1.0</v>
@@ -9900,10 +9900,10 @@
     </row>
     <row r="640">
       <c r="A640" s="1" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C640" s="1">
         <v>1.0</v>
@@ -9911,10 +9911,10 @@
     </row>
     <row r="641">
       <c r="A641" s="1" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C641" s="1">
         <v>1.0</v>
@@ -9922,10 +9922,10 @@
     </row>
     <row r="642">
       <c r="A642" s="1" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C642" s="1">
         <v>1.0</v>
@@ -9933,10 +9933,10 @@
     </row>
     <row r="643">
       <c r="A643" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C643" s="1">
         <v>1.0</v>
@@ -9944,10 +9944,10 @@
     </row>
     <row r="644">
       <c r="A644" s="1" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C644" s="1">
         <v>1.0</v>
@@ -9955,10 +9955,10 @@
     </row>
     <row r="645">
       <c r="A645" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C645" s="1">
         <v>1.0</v>
@@ -9966,10 +9966,10 @@
     </row>
     <row r="646">
       <c r="A646" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C646" s="1">
         <v>1.0</v>
@@ -9977,10 +9977,10 @@
     </row>
     <row r="647">
       <c r="A647" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C647" s="1">
         <v>1.0</v>
@@ -9988,10 +9988,10 @@
     </row>
     <row r="648">
       <c r="A648" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C648" s="1">
         <v>1.0</v>
@@ -9999,10 +9999,10 @@
     </row>
     <row r="649">
       <c r="A649" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C649" s="1">
         <v>1.0</v>
@@ -10010,10 +10010,10 @@
     </row>
     <row r="650">
       <c r="A650" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C650" s="1">
         <v>1.0</v>
@@ -10021,10 +10021,10 @@
     </row>
     <row r="651">
       <c r="A651" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C651" s="1">
         <v>1.0</v>
@@ -10032,10 +10032,10 @@
     </row>
     <row r="652">
       <c r="A652" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C652" s="1">
         <v>1.0</v>
@@ -10043,10 +10043,10 @@
     </row>
     <row r="653">
       <c r="A653" s="1" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C653" s="1">
         <v>1.0</v>
@@ -10054,10 +10054,10 @@
     </row>
     <row r="654">
       <c r="A654" s="1" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C654" s="1">
         <v>1.0</v>
@@ -10065,10 +10065,10 @@
     </row>
     <row r="655">
       <c r="A655" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C655" s="1">
         <v>1.0</v>
@@ -10076,10 +10076,10 @@
     </row>
     <row r="656">
       <c r="A656" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C656" s="1">
         <v>1.0</v>
@@ -10087,10 +10087,10 @@
     </row>
     <row r="657">
       <c r="A657" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C657" s="1">
         <v>1.0</v>
@@ -10098,10 +10098,10 @@
     </row>
     <row r="658">
       <c r="A658" s="1" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C658" s="1">
         <v>1.0</v>
@@ -10109,10 +10109,10 @@
     </row>
     <row r="659">
       <c r="A659" s="1" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C659" s="1">
         <v>1.0</v>
@@ -10120,10 +10120,10 @@
     </row>
     <row r="660">
       <c r="A660" s="1" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C660" s="1">
         <v>1.0</v>
@@ -10131,10 +10131,10 @@
     </row>
     <row r="661">
       <c r="A661" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C661" s="1">
         <v>1.0</v>
@@ -10142,10 +10142,10 @@
     </row>
     <row r="662">
       <c r="A662" s="1" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C662" s="1">
         <v>1.0</v>
@@ -10153,10 +10153,10 @@
     </row>
     <row r="663">
       <c r="A663" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C663" s="1">
         <v>1.0</v>
@@ -10164,10 +10164,10 @@
     </row>
     <row r="664">
       <c r="A664" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C664" s="1">
         <v>1.0</v>
@@ -10175,10 +10175,10 @@
     </row>
     <row r="665">
       <c r="A665" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C665" s="1">
         <v>1.0</v>
@@ -10186,10 +10186,10 @@
     </row>
     <row r="666">
       <c r="A666" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C666" s="1">
         <v>1.0</v>
@@ -10197,10 +10197,10 @@
     </row>
     <row r="667">
       <c r="A667" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C667" s="1">
         <v>1.0</v>
@@ -10208,10 +10208,10 @@
     </row>
     <row r="668">
       <c r="A668" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C668" s="1">
         <v>1.0</v>
@@ -10219,10 +10219,10 @@
     </row>
     <row r="669">
       <c r="A669" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C669" s="1">
         <v>1.0</v>
@@ -10230,10 +10230,10 @@
     </row>
     <row r="670">
       <c r="A670" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C670" s="1">
         <v>1.0</v>
@@ -10241,10 +10241,10 @@
     </row>
     <row r="671">
       <c r="A671" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C671" s="1">
         <v>1.0</v>
@@ -10252,10 +10252,10 @@
     </row>
     <row r="672">
       <c r="A672" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C672" s="1">
         <v>1.0</v>
@@ -10263,10 +10263,10 @@
     </row>
     <row r="673">
       <c r="A673" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C673" s="1">
         <v>1.0</v>
@@ -10274,10 +10274,10 @@
     </row>
     <row r="674">
       <c r="A674" s="1" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C674" s="1">
         <v>1.0</v>
@@ -10285,10 +10285,10 @@
     </row>
     <row r="675">
       <c r="A675" s="1" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C675" s="1">
         <v>1.0</v>
@@ -10296,10 +10296,10 @@
     </row>
     <row r="676">
       <c r="A676" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C676" s="1">
         <v>1.0</v>
@@ -10307,10 +10307,10 @@
     </row>
     <row r="677">
       <c r="A677" s="1" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C677" s="1">
         <v>1.0</v>
@@ -10318,10 +10318,10 @@
     </row>
     <row r="678">
       <c r="A678" s="1" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C678" s="1">
         <v>1.0</v>
@@ -10329,10 +10329,10 @@
     </row>
     <row r="679">
       <c r="A679" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C679" s="1">
         <v>1.0</v>
@@ -10340,10 +10340,10 @@
     </row>
     <row r="680">
       <c r="A680" s="1" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C680" s="1">
         <v>1.0</v>
@@ -10351,10 +10351,10 @@
     </row>
     <row r="681">
       <c r="A681" s="1" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C681" s="1">
         <v>1.0</v>
@@ -10362,10 +10362,10 @@
     </row>
     <row r="682">
       <c r="A682" s="1" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C682" s="1">
         <v>1.0</v>
@@ -10373,10 +10373,10 @@
     </row>
     <row r="683">
       <c r="A683" s="1" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C683" s="1">
         <v>1.0</v>
@@ -10384,10 +10384,10 @@
     </row>
     <row r="684">
       <c r="A684" s="1" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C684" s="1">
         <v>1.0</v>
@@ -10395,10 +10395,10 @@
     </row>
     <row r="685">
       <c r="A685" s="1" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C685" s="1">
         <v>1.0</v>
@@ -10406,10 +10406,10 @@
     </row>
     <row r="686">
       <c r="A686" s="1" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C686" s="1">
         <v>1.0</v>
@@ -10417,10 +10417,10 @@
     </row>
     <row r="687">
       <c r="A687" s="1" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C687" s="1">
         <v>1.0</v>
@@ -10428,10 +10428,10 @@
     </row>
     <row r="688">
       <c r="A688" s="1" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C688" s="1">
         <v>1.0</v>
@@ -10439,10 +10439,10 @@
     </row>
     <row r="689">
       <c r="A689" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C689" s="1">
         <v>1.0</v>
@@ -10450,10 +10450,10 @@
     </row>
     <row r="690">
       <c r="A690" s="1" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C690" s="1">
         <v>1.0</v>
@@ -10461,10 +10461,10 @@
     </row>
     <row r="691">
       <c r="A691" s="1" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C691" s="1">
         <v>1.0</v>
@@ -10472,10 +10472,10 @@
     </row>
     <row r="692">
       <c r="A692" s="1" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C692" s="1">
         <v>1.0</v>
@@ -10483,10 +10483,10 @@
     </row>
     <row r="693">
       <c r="A693" s="1" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C693" s="1">
         <v>1.0</v>
@@ -10494,10 +10494,10 @@
     </row>
     <row r="694">
       <c r="A694" s="1" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C694" s="1">
         <v>1.0</v>
@@ -10505,10 +10505,10 @@
     </row>
     <row r="695">
       <c r="A695" s="1" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C695" s="1">
         <v>1.0</v>
@@ -10516,10 +10516,10 @@
     </row>
     <row r="696">
       <c r="A696" s="1" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C696" s="1">
         <v>1.0</v>
@@ -10527,10 +10527,10 @@
     </row>
     <row r="697">
       <c r="A697" s="1" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C697" s="1">
         <v>1.0</v>
@@ -10538,10 +10538,10 @@
     </row>
     <row r="698">
       <c r="A698" s="1" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C698" s="1">
         <v>1.0</v>
@@ -10549,10 +10549,10 @@
     </row>
     <row r="699">
       <c r="A699" s="1" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C699" s="1">
         <v>1.0</v>
@@ -10560,10 +10560,10 @@
     </row>
     <row r="700">
       <c r="A700" s="1" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C700" s="1">
         <v>1.0</v>
@@ -10571,10 +10571,10 @@
     </row>
     <row r="701">
       <c r="A701" s="1" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C701" s="1">
         <v>1.0</v>
@@ -10582,10 +10582,10 @@
     </row>
     <row r="702">
       <c r="A702" s="1" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C702" s="1">
         <v>1.0</v>
@@ -10593,10 +10593,10 @@
     </row>
     <row r="703">
       <c r="A703" s="1" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C703" s="1">
         <v>1.0</v>
@@ -10604,10 +10604,10 @@
     </row>
     <row r="704">
       <c r="A704" s="1" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C704" s="1">
         <v>1.0</v>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="705">
       <c r="A705" s="1" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C705" s="1">
         <v>1.0</v>
@@ -10626,10 +10626,10 @@
     </row>
     <row r="706">
       <c r="A706" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C706" s="1">
         <v>1.0</v>
@@ -10637,10 +10637,10 @@
     </row>
     <row r="707">
       <c r="A707" s="1" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C707" s="1">
         <v>1.0</v>
@@ -10648,10 +10648,10 @@
     </row>
     <row r="708">
       <c r="A708" s="1" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C708" s="1">
         <v>1.0</v>
@@ -10659,10 +10659,10 @@
     </row>
     <row r="709">
       <c r="A709" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C709" s="1">
         <v>1.0</v>
@@ -10670,10 +10670,10 @@
     </row>
     <row r="710">
       <c r="A710" s="1" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C710" s="1">
         <v>1.0</v>
@@ -10681,10 +10681,10 @@
     </row>
     <row r="711">
       <c r="A711" s="1" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C711" s="1">
         <v>1.0</v>
@@ -10692,10 +10692,10 @@
     </row>
     <row r="712">
       <c r="A712" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C712" s="1">
         <v>1.0</v>
@@ -10703,10 +10703,10 @@
     </row>
     <row r="713">
       <c r="A713" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C713" s="1">
         <v>1.0</v>
@@ -10714,10 +10714,10 @@
     </row>
     <row r="714">
       <c r="A714" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C714" s="1">
         <v>1.0</v>
@@ -10725,10 +10725,10 @@
     </row>
     <row r="715">
       <c r="A715" s="1" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C715" s="1">
         <v>1.0</v>
@@ -10736,10 +10736,10 @@
     </row>
     <row r="716">
       <c r="A716" s="1" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C716" s="1">
         <v>1.0</v>
@@ -10747,10 +10747,10 @@
     </row>
     <row r="717">
       <c r="A717" s="1" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C717" s="1">
         <v>1.0</v>
@@ -10758,10 +10758,10 @@
     </row>
     <row r="718">
       <c r="A718" s="1" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C718" s="1">
         <v>1.0</v>
@@ -10769,10 +10769,10 @@
     </row>
     <row r="719">
       <c r="A719" s="1" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C719" s="1">
         <v>1.0</v>
@@ -10780,10 +10780,10 @@
     </row>
     <row r="720">
       <c r="A720" s="1" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C720" s="1">
         <v>1.0</v>
@@ -10791,10 +10791,10 @@
     </row>
     <row r="721">
       <c r="A721" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C721" s="1">
         <v>1.0</v>
@@ -10802,10 +10802,10 @@
     </row>
     <row r="722">
       <c r="A722" s="1" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C722" s="1">
         <v>1.0</v>
@@ -10813,10 +10813,10 @@
     </row>
     <row r="723">
       <c r="A723" s="1" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C723" s="1">
         <v>1.0</v>
@@ -10824,10 +10824,10 @@
     </row>
     <row r="724">
       <c r="A724" s="1" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C724" s="1">
         <v>1.0</v>
@@ -10835,10 +10835,10 @@
     </row>
     <row r="725">
       <c r="A725" s="1" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C725" s="1">
         <v>1.0</v>
@@ -10846,10 +10846,10 @@
     </row>
     <row r="726">
       <c r="A726" s="1" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C726" s="1">
         <v>1.0</v>
@@ -10857,10 +10857,10 @@
     </row>
     <row r="727">
       <c r="A727" s="1" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C727" s="1">
         <v>1.0</v>
@@ -10871,7 +10871,7 @@
         <v>739</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C728" s="1">
         <v>1.0</v>
@@ -10882,7 +10882,7 @@
         <v>740</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C729" s="1">
         <v>1.0</v>
@@ -10893,7 +10893,7 @@
         <v>741</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C730" s="1">
         <v>1.0</v>
@@ -10904,7 +10904,7 @@
         <v>742</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C731" s="1">
         <v>1.0</v>
@@ -10915,7 +10915,7 @@
         <v>743</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C732" s="1">
         <v>1.0</v>
@@ -10923,10 +10923,10 @@
     </row>
     <row r="733">
       <c r="A733" s="1" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C733" s="1">
         <v>1.0</v>
@@ -10934,10 +10934,10 @@
     </row>
     <row r="734">
       <c r="A734" s="1" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C734" s="1">
         <v>1.0</v>
@@ -10945,10 +10945,10 @@
     </row>
     <row r="735">
       <c r="A735" s="1" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C735" s="1">
         <v>1.0</v>
@@ -10956,10 +10956,10 @@
     </row>
     <row r="736">
       <c r="A736" s="1" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C736" s="1">
         <v>1.0</v>
@@ -10967,10 +10967,10 @@
     </row>
     <row r="737">
       <c r="A737" s="1" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C737" s="1">
         <v>1.0</v>
@@ -10981,7 +10981,7 @@
         <v>746</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C738" s="1">
         <v>1.0</v>
@@ -10992,7 +10992,7 @@
         <v>747</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C739" s="1">
         <v>1.0</v>
@@ -11003,7 +11003,7 @@
         <v>748</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C740" s="1">
         <v>1.0</v>
@@ -11011,10 +11011,10 @@
     </row>
     <row r="741">
       <c r="A741" s="1" t="s">
-        <v>749</v>
+        <v>399</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C741" s="1">
         <v>1.0</v>
@@ -11022,10 +11022,10 @@
     </row>
     <row r="742">
       <c r="A742" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C742" s="1">
         <v>1.0</v>
@@ -11033,67 +11033,12 @@
     </row>
     <row r="743">
       <c r="A743" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C743" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B744" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C744" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B745" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C745" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B746" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C746" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="B747" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C747" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B748" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C748" s="1">
         <v>1.0</v>
       </c>
     </row>
